--- a/Datasets/vjcortesa_quick check_borrar.xlsx
+++ b/Datasets/vjcortesa_quick check_borrar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="8_{2A7E1197-98BA-49EB-B138-358D191A5524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1375BD1-10B8-412F-8A2D-F49FAC1D9DD9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{265A92C7-4116-4AD2-A080-812BA723BF99}"/>
+    <workbookView xWindow="1310" yWindow="1960" windowWidth="14400" windowHeight="7280" activeTab="2" xr2:uid="{265A92C7-4116-4AD2-A080-812BA723BF99}"/>
   </bookViews>
   <sheets>
     <sheet name="2509-2507 house" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,163 +188,198 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2">
+            <v>239</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>N02 steel walls</v>
+          </cell>
+          <cell r="C2">
+            <v>4</v>
+          </cell>
+          <cell r="D2">
+            <v>138</v>
+          </cell>
+          <cell r="E2">
+            <v>246</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>N02</v>
+          </cell>
+          <cell r="G2">
+            <v>6</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="A3">
-            <v>220</v>
+            <v>241</v>
           </cell>
           <cell r="B3" t="str">
-            <v>N02 steel walls</v>
+            <v>N03 Flood wall</v>
           </cell>
           <cell r="C3">
-            <v>4</v>
+            <v>3</v>
+          </cell>
+          <cell r="D3">
+            <v>138</v>
+          </cell>
+          <cell r="E3">
+            <v>247</v>
           </cell>
           <cell r="F3" t="str">
-            <v>N02</v>
+            <v>N03</v>
           </cell>
           <cell r="G3">
-            <v>6</v>
+            <v>9</v>
           </cell>
           <cell r="H3">
             <v>1</v>
           </cell>
           <cell r="I3">
             <v>1</v>
-          </cell>
-          <cell r="J3">
-            <v>29</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>Self-activating wall</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>222</v>
+            <v>248</v>
           </cell>
           <cell r="B4" t="str">
-            <v>N02 water pump</v>
+            <v>N03 Rain Barrel</v>
           </cell>
           <cell r="C4">
-            <v>4</v>
+            <v>3</v>
+          </cell>
+          <cell r="D4">
+            <v>140</v>
+          </cell>
+          <cell r="E4">
+            <v>247</v>
           </cell>
           <cell r="F4" t="str">
-            <v>N02</v>
+            <v>N03</v>
           </cell>
           <cell r="G4">
-            <v>6</v>
+            <v>9</v>
           </cell>
           <cell r="H4">
             <v>1</v>
           </cell>
           <cell r="I4">
             <v>1</v>
-          </cell>
-          <cell r="J4">
-            <v>29</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Water pump installation</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>225</v>
+            <v>253</v>
           </cell>
           <cell r="B5" t="str">
-            <v>N03 Rain Barrel</v>
+            <v>N06 sandbags</v>
           </cell>
           <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5">
+            <v>142</v>
+          </cell>
+          <cell r="E5">
+            <v>250</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>N06</v>
+          </cell>
+          <cell r="G5">
             <v>3</v>
           </cell>
-          <cell r="F5" t="str">
-            <v>N03</v>
-          </cell>
-          <cell r="G5">
-            <v>9</v>
-          </cell>
           <cell r="H5">
             <v>1</v>
           </cell>
           <cell r="I5">
             <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>29</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Rainbarrel for recycling</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>228</v>
+            <v>246</v>
           </cell>
           <cell r="B6" t="str">
-            <v>N03 Flood wall</v>
+            <v>D06 water resist</v>
           </cell>
           <cell r="C6">
-            <v>3</v>
+            <v>4</v>
+          </cell>
+          <cell r="D6">
+            <v>141</v>
+          </cell>
+          <cell r="E6">
+            <v>257</v>
           </cell>
           <cell r="F6" t="str">
-            <v>N03</v>
+            <v>D06</v>
           </cell>
           <cell r="G6">
-            <v>9</v>
+            <v>5</v>
           </cell>
           <cell r="H6">
             <v>1</v>
           </cell>
           <cell r="I6">
-            <v>1</v>
-          </cell>
-          <cell r="J6">
-            <v>29</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>Self-activating wall</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>234</v>
+            <v>255</v>
           </cell>
           <cell r="B7" t="str">
-            <v>N06 sandbags</v>
+            <v>D06 flood wall</v>
           </cell>
           <cell r="C7">
-            <v>2</v>
+            <v>3</v>
+          </cell>
+          <cell r="D7">
+            <v>138</v>
+          </cell>
+          <cell r="E7">
+            <v>257</v>
           </cell>
           <cell r="F7" t="str">
-            <v>N06</v>
+            <v>D06</v>
           </cell>
           <cell r="G7">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="H7">
             <v>1</v>
           </cell>
           <cell r="I7">
-            <v>1</v>
-          </cell>
-          <cell r="J7">
-            <v>29</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>Sandbags</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>223</v>
+            <v>240</v>
           </cell>
           <cell r="B8" t="str">
-            <v>D06 water pump</v>
+            <v>D07 flood wall</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+          <cell r="D8">
+            <v>138</v>
+          </cell>
+          <cell r="E8">
+            <v>258</v>
           </cell>
           <cell r="F8" t="str">
-            <v>D06</v>
+            <v>D07</v>
           </cell>
           <cell r="G8">
             <v>5</v>
@@ -352,30 +388,59 @@
             <v>1</v>
           </cell>
           <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>30</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>Water pump installation</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>252</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>D07 water resist</v>
+          </cell>
+          <cell r="C9">
+            <v>4</v>
+          </cell>
+          <cell r="D9">
+            <v>141</v>
+          </cell>
+          <cell r="E9">
+            <v>258</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>D07</v>
+          </cell>
+          <cell r="G9">
+            <v>5</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>221</v>
+            <v>237</v>
           </cell>
           <cell r="B10" t="str">
-            <v>D07 flood wall</v>
+            <v>D08 Green Garden</v>
           </cell>
           <cell r="C10">
-            <v>3</v>
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>137</v>
+          </cell>
+          <cell r="E10">
+            <v>259</v>
           </cell>
           <cell r="F10" t="str">
-            <v>D07</v>
+            <v>D08</v>
           </cell>
           <cell r="G10">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="H10">
             <v>1</v>
@@ -383,28 +448,28 @@
           <cell r="I10">
             <v>2</v>
           </cell>
-          <cell r="J10">
-            <v>30</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>Self-activating wall</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>236</v>
+            <v>249</v>
           </cell>
           <cell r="B11" t="str">
-            <v>D07 water resist</v>
+            <v>D08 Waterproof walls</v>
           </cell>
           <cell r="C11">
-            <v>4</v>
+            <v>2</v>
+          </cell>
+          <cell r="D11">
+            <v>141</v>
+          </cell>
+          <cell r="E11">
+            <v>259</v>
           </cell>
           <cell r="F11" t="str">
-            <v>D07</v>
+            <v>D08</v>
           </cell>
           <cell r="G11">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="H11">
             <v>1</v>
@@ -412,170 +477,170 @@
           <cell r="I11">
             <v>2</v>
           </cell>
-          <cell r="J11">
-            <v>30</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>Waterproof walls, floors</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>218</v>
+            <v>242</v>
           </cell>
           <cell r="B12" t="str">
-            <v>D08 Green Garden</v>
+            <v>U02 flood wall</v>
           </cell>
           <cell r="C12">
             <v>2</v>
           </cell>
+          <cell r="D12">
+            <v>138</v>
+          </cell>
+          <cell r="E12">
+            <v>263</v>
+          </cell>
           <cell r="F12" t="str">
-            <v>D08</v>
+            <v>U02</v>
           </cell>
           <cell r="G12">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="H12">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I12">
-            <v>2</v>
-          </cell>
-          <cell r="J12">
-            <v>30</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>Green garden</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>226</v>
+            <v>238</v>
           </cell>
           <cell r="B13" t="str">
-            <v>D08 Water proof walls and floors</v>
+            <v>U03 green garden</v>
           </cell>
           <cell r="C13">
-            <v>2</v>
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>137</v>
+          </cell>
+          <cell r="E13">
+            <v>264</v>
           </cell>
           <cell r="F13" t="str">
-            <v>D08</v>
+            <v>U03</v>
           </cell>
           <cell r="G13">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="H13">
             <v>1</v>
           </cell>
           <cell r="I13">
-            <v>2</v>
-          </cell>
-          <cell r="J13">
-            <v>30</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>Waterproof walls, floors</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>229</v>
+            <v>243</v>
           </cell>
           <cell r="B14" t="str">
-            <v>U02 flood wall</v>
+            <v>U03 flood wall</v>
           </cell>
           <cell r="C14">
-            <v>2</v>
+            <v>3</v>
+          </cell>
+          <cell r="D14">
+            <v>138</v>
+          </cell>
+          <cell r="E14">
+            <v>264</v>
           </cell>
           <cell r="F14" t="str">
-            <v>U02</v>
+            <v>U03</v>
           </cell>
           <cell r="G14">
             <v>6</v>
           </cell>
           <cell r="H14">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I14">
             <v>1</v>
-          </cell>
-          <cell r="J14">
-            <v>31</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>Self-activating wall</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>219</v>
+            <v>254</v>
           </cell>
           <cell r="B15" t="str">
-            <v>U03 green garden</v>
+            <v>U06 sandbags</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+          <cell r="D15">
+            <v>142</v>
+          </cell>
+          <cell r="E15">
+            <v>267</v>
           </cell>
           <cell r="F15" t="str">
-            <v>U03</v>
+            <v>U06</v>
           </cell>
           <cell r="G15">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="H15">
             <v>1</v>
           </cell>
           <cell r="I15">
             <v>1</v>
-          </cell>
-          <cell r="J15">
-            <v>31</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>Green garden</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>230</v>
+            <v>244</v>
           </cell>
           <cell r="B16" t="str">
-            <v>U03 flood wall</v>
+            <v>U07 flood wall</v>
           </cell>
           <cell r="C16">
-            <v>3</v>
+            <v>4</v>
+          </cell>
+          <cell r="D16">
+            <v>138</v>
+          </cell>
+          <cell r="E16">
+            <v>268</v>
           </cell>
           <cell r="F16" t="str">
-            <v>U03</v>
+            <v>U07</v>
           </cell>
           <cell r="G16">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="H16">
             <v>1</v>
           </cell>
           <cell r="I16">
-            <v>1</v>
-          </cell>
-          <cell r="J16">
-            <v>31</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>Self-activating wall</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>235</v>
+            <v>251</v>
           </cell>
           <cell r="B17" t="str">
-            <v>U06 sandbags</v>
+            <v>U07 walls floors</v>
           </cell>
           <cell r="C17">
-            <v>2</v>
+            <v>3</v>
+          </cell>
+          <cell r="D17">
+            <v>141</v>
+          </cell>
+          <cell r="E17">
+            <v>268</v>
           </cell>
           <cell r="F17" t="str">
-            <v>U06</v>
+            <v>U07</v>
           </cell>
           <cell r="G17">
             <v>4</v>
@@ -584,30 +649,30 @@
             <v>1</v>
           </cell>
           <cell r="I17">
-            <v>1</v>
-          </cell>
-          <cell r="J17">
-            <v>31</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>Sandbags</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>224</v>
+            <v>250</v>
           </cell>
           <cell r="B18" t="str">
-            <v>U07 water pump</v>
+            <v>U08 ground level</v>
           </cell>
           <cell r="C18">
-            <v>3</v>
+            <v>2</v>
+          </cell>
+          <cell r="D18">
+            <v>141</v>
+          </cell>
+          <cell r="E18">
+            <v>269</v>
           </cell>
           <cell r="F18" t="str">
-            <v>U07</v>
+            <v>U08</v>
           </cell>
           <cell r="G18">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="H18">
             <v>1</v>
@@ -615,587 +680,542 @@
           <cell r="I18">
             <v>2</v>
           </cell>
-          <cell r="J18">
-            <v>31</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>Water pump installation</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>231</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>U07 flood wall</v>
-          </cell>
-          <cell r="C19">
-            <v>4</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>U07</v>
-          </cell>
-          <cell r="G19">
-            <v>4</v>
-          </cell>
-          <cell r="H19">
-            <v>1</v>
-          </cell>
-          <cell r="I19">
-            <v>2</v>
-          </cell>
-          <cell r="J19">
-            <v>31</v>
-          </cell>
-          <cell r="K19" t="str">
-            <v>Self-activating wall</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>233</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>U07 walls floors</v>
-          </cell>
-          <cell r="C20">
-            <v>3</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>U07</v>
-          </cell>
-          <cell r="G20">
-            <v>4</v>
-          </cell>
-          <cell r="H20">
-            <v>1</v>
-          </cell>
-          <cell r="I20">
-            <v>2</v>
-          </cell>
-          <cell r="J20">
-            <v>31</v>
-          </cell>
-          <cell r="K20" t="str">
-            <v>Waterproof walls, floors</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>227</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>U08 Water proof walls and floors</v>
-          </cell>
-          <cell r="C21">
-            <v>2</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>U08</v>
-          </cell>
-          <cell r="G21">
-            <v>2</v>
-          </cell>
-          <cell r="H21">
-            <v>1</v>
-          </cell>
-          <cell r="I21">
-            <v>2</v>
-          </cell>
-          <cell r="J21">
-            <v>31</v>
-          </cell>
-          <cell r="K21" t="str">
-            <v>Waterproof walls, floors</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
+        <row r="2">
+          <cell r="A2">
+            <v>245</v>
+          </cell>
+          <cell r="B2">
+            <v>425000</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>N01</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Stickroad 17</v>
+          </cell>
+          <cell r="F2">
+            <v>9</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>32</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="A3">
-            <v>218</v>
+            <v>246</v>
           </cell>
           <cell r="B3">
-            <v>425000</v>
+            <v>200000</v>
           </cell>
           <cell r="C3" t="str">
-            <v>N01</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Stickroad 17</v>
-          </cell>
-          <cell r="E3">
-            <v>9</v>
+            <v>N02</v>
+          </cell>
+          <cell r="D3">
+            <v>4</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Twiglane 7</v>
           </cell>
           <cell r="F3">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="G3">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H3">
             <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>32</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>219</v>
+            <v>247</v>
           </cell>
           <cell r="B4">
-            <v>200000</v>
+            <v>425000</v>
           </cell>
           <cell r="C4" t="str">
-            <v>N02</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Twiglane 7</v>
-          </cell>
-          <cell r="E4">
-            <v>6</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4">
-            <v>1</v>
-          </cell>
-          <cell r="H4">
+            <v>N03</v>
+          </cell>
+          <cell r="D4">
             <v>4</v>
           </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>220</v>
-          </cell>
-          <cell r="B5">
-            <v>425000</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>N03</v>
-          </cell>
-          <cell r="D5" t="str">
+          <cell r="E4" t="str">
             <v xml:space="preserve">Stickroad 21_x000D_
 _x000D_
 </v>
           </cell>
-          <cell r="E5">
+          <cell r="F4">
             <v>9</v>
           </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>248</v>
+          </cell>
+          <cell r="B5">
+            <v>200000</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>N04</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v xml:space="preserve">Twiglane 8_x000D_
+</v>
+          </cell>
           <cell r="F5">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="G5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H5">
-            <v>4</v>
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>32</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>221</v>
+            <v>249</v>
           </cell>
           <cell r="B6">
             <v>200000</v>
           </cell>
           <cell r="C6" t="str">
-            <v>N04</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v xml:space="preserve">Twiglane 8_x000D_
-</v>
-          </cell>
-          <cell r="E6">
+            <v>N05</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Twiglane 5</v>
+          </cell>
+          <cell r="F6">
             <v>6</v>
           </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
           <cell r="G6">
             <v>0</v>
           </cell>
           <cell r="H6">
-            <v>1</v>
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>32</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>222</v>
+            <v>250</v>
           </cell>
           <cell r="B7">
-            <v>200000</v>
+            <v>100000</v>
           </cell>
           <cell r="C7" t="str">
-            <v>N05</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Twiglane 5</v>
-          </cell>
-          <cell r="E7">
-            <v>6</v>
+            <v>N06</v>
+          </cell>
+          <cell r="D7">
+            <v>4</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Leafstreet 28</v>
           </cell>
           <cell r="F7">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="G7">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H7">
-            <v>2</v>
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>32</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>223</v>
+            <v>251</v>
           </cell>
           <cell r="B8">
             <v>100000</v>
           </cell>
           <cell r="C8" t="str">
-            <v>N06</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v xml:space="preserve">Leafstreet 28_x000D_
-_x000D_
+            <v>N07</v>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v xml:space="preserve">Leafstreet 26_x000D_
 </v>
           </cell>
-          <cell r="E8">
+          <cell r="F8">
             <v>3</v>
           </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
           <cell r="G8">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H8">
-            <v>3</v>
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>32</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>224</v>
+            <v>252</v>
           </cell>
           <cell r="B9">
-            <v>100000</v>
+            <v>300000</v>
           </cell>
           <cell r="C9" t="str">
-            <v>N07</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v xml:space="preserve">Leafstreet 26_x000D_
+            <v>D01</v>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v xml:space="preserve">Stonelane 13_x000D_
 </v>
           </cell>
-          <cell r="E9">
-            <v>3</v>
-          </cell>
           <cell r="F9">
-            <v>0</v>
+            <v>8</v>
           </cell>
           <cell r="G9">
             <v>0</v>
           </cell>
           <cell r="H9">
-            <v>1</v>
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>33</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>225</v>
+            <v>253</v>
           </cell>
           <cell r="B10">
             <v>300000</v>
           </cell>
           <cell r="C10" t="str">
-            <v>D01</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v xml:space="preserve">Stonelane 13_x000D_
-</v>
-          </cell>
-          <cell r="E10">
+            <v>D02</v>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Stonelane 11</v>
+          </cell>
+          <cell r="F10">
             <v>8</v>
           </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
           <cell r="G10">
             <v>0</v>
           </cell>
           <cell r="H10">
-            <v>1</v>
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>33</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>226</v>
+            <v>254</v>
           </cell>
           <cell r="B11">
             <v>300000</v>
           </cell>
           <cell r="C11" t="str">
-            <v>D02</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Stonelane 11</v>
-          </cell>
-          <cell r="E11">
+            <v>D03</v>
+          </cell>
+          <cell r="D11">
+            <v>4</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Stonelane 15</v>
+          </cell>
+          <cell r="F11">
             <v>8</v>
           </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
           <cell r="G11">
             <v>0</v>
           </cell>
           <cell r="H11">
-            <v>2</v>
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>33</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>227</v>
+            <v>255</v>
           </cell>
           <cell r="B12">
-            <v>300000</v>
+            <v>160000</v>
           </cell>
           <cell r="C12" t="str">
-            <v>D03</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v xml:space="preserve">Stonelane 15_x000D_
-_x000D_
+            <v>D04</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v xml:space="preserve">Steelstreet 22_x000D_
 </v>
           </cell>
-          <cell r="E12">
-            <v>8</v>
-          </cell>
           <cell r="F12">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="G12">
             <v>0</v>
           </cell>
           <cell r="H12">
-            <v>3</v>
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>33</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>228</v>
+            <v>256</v>
           </cell>
           <cell r="B13">
             <v>160000</v>
           </cell>
           <cell r="C13" t="str">
-            <v>D04</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v xml:space="preserve">Steelstreet 22_x000D_
+            <v>D05</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v xml:space="preserve">Steelstreet 20_x000D_
 </v>
           </cell>
-          <cell r="E13">
+          <cell r="F13">
             <v>5</v>
           </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
           <cell r="G13">
             <v>0</v>
           </cell>
           <cell r="H13">
-            <v>1</v>
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>33</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>229</v>
+            <v>257</v>
           </cell>
           <cell r="B14">
             <v>160000</v>
           </cell>
           <cell r="C14" t="str">
-            <v>D05</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v xml:space="preserve">Steelstreet 20_x000D_
-</v>
-          </cell>
-          <cell r="E14">
+            <v>D06</v>
+          </cell>
+          <cell r="D14">
+            <v>4</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Steelstreet 25</v>
+          </cell>
+          <cell r="F14">
             <v>5</v>
           </cell>
-          <cell r="F14">
-            <v>0</v>
-          </cell>
           <cell r="G14">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H14">
-            <v>1</v>
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>33</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>230</v>
+            <v>258</v>
           </cell>
           <cell r="B15">
             <v>160000</v>
           </cell>
           <cell r="C15" t="str">
-            <v>D06</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v xml:space="preserve">Steelstreet 25_x000D_
-_x000D_
-</v>
-          </cell>
-          <cell r="E15">
-            <v>5</v>
-          </cell>
-          <cell r="F15">
-            <v>1</v>
-          </cell>
-          <cell r="G15">
-            <v>0</v>
-          </cell>
-          <cell r="H15">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>231</v>
-          </cell>
-          <cell r="B16">
-            <v>160000</v>
-          </cell>
-          <cell r="C16" t="str">
             <v>D07</v>
           </cell>
-          <cell r="D16" t="str">
+          <cell r="D15">
+            <v>4</v>
+          </cell>
+          <cell r="E15" t="str">
             <v xml:space="preserve">Steelstreet 23_x000D_
 _x000D_
 </v>
           </cell>
-          <cell r="E16">
+          <cell r="F15">
             <v>5</v>
           </cell>
-          <cell r="F16">
-            <v>1</v>
-          </cell>
-          <cell r="G16">
+          <cell r="G15">
+            <v>1</v>
+          </cell>
+          <cell r="H15">
             <v>2</v>
           </cell>
-          <cell r="H16">
+          <cell r="I15">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>259</v>
+          </cell>
+          <cell r="B16">
+            <v>80000</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>D08</v>
+          </cell>
+          <cell r="D16">
             <v>4</v>
           </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>232</v>
-          </cell>
-          <cell r="B17">
-            <v>80000</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>D08</v>
-          </cell>
-          <cell r="D17" t="str">
+          <cell r="E16" t="str">
             <v xml:space="preserve">Brickroad 8_x000D_
 _x000D_
 </v>
           </cell>
-          <cell r="E17">
+          <cell r="F16">
             <v>2</v>
           </cell>
+          <cell r="G16">
+            <v>1</v>
+          </cell>
+          <cell r="H16">
+            <v>2</v>
+          </cell>
+          <cell r="I16">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>260</v>
+          </cell>
+          <cell r="B17">
+            <v>80000</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>D09</v>
+          </cell>
+          <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Brickroad 4</v>
+          </cell>
           <cell r="F17">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G17">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="H17">
-            <v>4</v>
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>33</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>233</v>
+            <v>261</v>
           </cell>
           <cell r="B18">
             <v>80000</v>
           </cell>
           <cell r="C18" t="str">
-            <v>D09</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Brickroad 4</v>
-          </cell>
-          <cell r="E18">
+            <v>D10</v>
+          </cell>
+          <cell r="D18">
+            <v>1</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v xml:space="preserve">Brickroad 6_x000D_
+</v>
+          </cell>
+          <cell r="F18">
             <v>2</v>
           </cell>
-          <cell r="F18">
-            <v>0</v>
-          </cell>
           <cell r="G18">
             <v>0</v>
           </cell>
           <cell r="H18">
-            <v>2</v>
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>33</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>234</v>
+            <v>262</v>
           </cell>
           <cell r="B19">
-            <v>80000</v>
+            <v>200000</v>
           </cell>
           <cell r="C19" t="str">
-            <v>D10</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v xml:space="preserve">Brickroad 6_x000D_
-</v>
-          </cell>
-          <cell r="E19">
-            <v>2</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-          <cell r="G19">
-            <v>0</v>
-          </cell>
-          <cell r="H19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>235</v>
-          </cell>
-          <cell r="B20">
-            <v>200000</v>
-          </cell>
-          <cell r="C20" t="str">
             <v>U01</v>
           </cell>
-          <cell r="D20" t="str">
+          <cell r="D19">
+            <v>1</v>
+          </cell>
+          <cell r="E19" t="str">
             <v xml:space="preserve">Woolstreet 33_x000D_
 </v>
           </cell>
-          <cell r="E20">
+          <cell r="F19">
             <v>6</v>
           </cell>
-          <cell r="F20">
-            <v>0</v>
-          </cell>
-          <cell r="G20">
-            <v>0</v>
-          </cell>
-          <cell r="H20">
-            <v>1</v>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>34</v>
           </cell>
         </row>
       </sheetData>
@@ -1210,1074 +1230,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId3"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="df_income_dist"/>
-      <sheetName val="playerround"/>
-      <sheetName val="measuretype"/>
-      <sheetName val="personalmeasure"/>
-      <sheetName val="housemeasure"/>
-      <sheetName val="initialhousemeasure"/>
-      <sheetName val="house"/>
-      <sheetName val="housegroup"/>
-      <sheetName val="group"/>
-      <sheetName val="groupround"/>
-      <sheetName val="player"/>
-      <sheetName val="gamesession"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="A2">
-            <v>239</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>N02 steel walls</v>
-          </cell>
-          <cell r="C2">
-            <v>4</v>
-          </cell>
-          <cell r="D2">
-            <v>138</v>
-          </cell>
-          <cell r="E2">
-            <v>246</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>N02</v>
-          </cell>
-          <cell r="G2">
-            <v>6</v>
-          </cell>
-          <cell r="H2">
-            <v>1</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>241</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>N03 Flood wall</v>
-          </cell>
-          <cell r="C3">
-            <v>3</v>
-          </cell>
-          <cell r="D3">
-            <v>138</v>
-          </cell>
-          <cell r="E3">
-            <v>247</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>N03</v>
-          </cell>
-          <cell r="G3">
-            <v>9</v>
-          </cell>
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>248</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>N03 Rain Barrel</v>
-          </cell>
-          <cell r="C4">
-            <v>3</v>
-          </cell>
-          <cell r="D4">
-            <v>140</v>
-          </cell>
-          <cell r="E4">
-            <v>247</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>N03</v>
-          </cell>
-          <cell r="G4">
-            <v>9</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-          <cell r="I4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>253</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>N06 sandbags</v>
-          </cell>
-          <cell r="C5">
-            <v>2</v>
-          </cell>
-          <cell r="D5">
-            <v>142</v>
-          </cell>
-          <cell r="E5">
-            <v>250</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>N06</v>
-          </cell>
-          <cell r="G5">
-            <v>3</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>246</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>D06 water resist</v>
-          </cell>
-          <cell r="C6">
-            <v>4</v>
-          </cell>
-          <cell r="D6">
-            <v>141</v>
-          </cell>
-          <cell r="E6">
-            <v>257</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>D06</v>
-          </cell>
-          <cell r="G6">
-            <v>5</v>
-          </cell>
-          <cell r="H6">
-            <v>1</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>255</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>D06 flood wall</v>
-          </cell>
-          <cell r="C7">
-            <v>3</v>
-          </cell>
-          <cell r="D7">
-            <v>138</v>
-          </cell>
-          <cell r="E7">
-            <v>257</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>D06</v>
-          </cell>
-          <cell r="G7">
-            <v>5</v>
-          </cell>
-          <cell r="H7">
-            <v>1</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>240</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>D07 flood wall</v>
-          </cell>
-          <cell r="C8">
-            <v>3</v>
-          </cell>
-          <cell r="D8">
-            <v>138</v>
-          </cell>
-          <cell r="E8">
-            <v>258</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>D07</v>
-          </cell>
-          <cell r="G8">
-            <v>5</v>
-          </cell>
-          <cell r="H8">
-            <v>1</v>
-          </cell>
-          <cell r="I8">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>252</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>D07 water resist</v>
-          </cell>
-          <cell r="C9">
-            <v>4</v>
-          </cell>
-          <cell r="D9">
-            <v>141</v>
-          </cell>
-          <cell r="E9">
-            <v>258</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>D07</v>
-          </cell>
-          <cell r="G9">
-            <v>5</v>
-          </cell>
-          <cell r="H9">
-            <v>1</v>
-          </cell>
-          <cell r="I9">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>237</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>D08 Green Garden</v>
-          </cell>
-          <cell r="C10">
-            <v>2</v>
-          </cell>
-          <cell r="D10">
-            <v>137</v>
-          </cell>
-          <cell r="E10">
-            <v>259</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>D08</v>
-          </cell>
-          <cell r="G10">
-            <v>2</v>
-          </cell>
-          <cell r="H10">
-            <v>1</v>
-          </cell>
-          <cell r="I10">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>249</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>D08 Waterproof walls</v>
-          </cell>
-          <cell r="C11">
-            <v>2</v>
-          </cell>
-          <cell r="D11">
-            <v>141</v>
-          </cell>
-          <cell r="E11">
-            <v>259</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>D08</v>
-          </cell>
-          <cell r="G11">
-            <v>2</v>
-          </cell>
-          <cell r="H11">
-            <v>1</v>
-          </cell>
-          <cell r="I11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>242</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>U02 flood wall</v>
-          </cell>
-          <cell r="C12">
-            <v>2</v>
-          </cell>
-          <cell r="D12">
-            <v>138</v>
-          </cell>
-          <cell r="E12">
-            <v>263</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>U02</v>
-          </cell>
-          <cell r="G12">
-            <v>6</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>238</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>U03 green garden</v>
-          </cell>
-          <cell r="C13">
-            <v>1</v>
-          </cell>
-          <cell r="D13">
-            <v>137</v>
-          </cell>
-          <cell r="E13">
-            <v>264</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>U03</v>
-          </cell>
-          <cell r="G13">
-            <v>6</v>
-          </cell>
-          <cell r="H13">
-            <v>1</v>
-          </cell>
-          <cell r="I13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>243</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>U03 flood wall</v>
-          </cell>
-          <cell r="C14">
-            <v>3</v>
-          </cell>
-          <cell r="D14">
-            <v>138</v>
-          </cell>
-          <cell r="E14">
-            <v>264</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>U03</v>
-          </cell>
-          <cell r="G14">
-            <v>6</v>
-          </cell>
-          <cell r="H14">
-            <v>1</v>
-          </cell>
-          <cell r="I14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>254</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>U06 sandbags</v>
-          </cell>
-          <cell r="C15">
-            <v>2</v>
-          </cell>
-          <cell r="D15">
-            <v>142</v>
-          </cell>
-          <cell r="E15">
-            <v>267</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>U06</v>
-          </cell>
-          <cell r="G15">
-            <v>4</v>
-          </cell>
-          <cell r="H15">
-            <v>1</v>
-          </cell>
-          <cell r="I15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>244</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>U07 flood wall</v>
-          </cell>
-          <cell r="C16">
-            <v>4</v>
-          </cell>
-          <cell r="D16">
-            <v>138</v>
-          </cell>
-          <cell r="E16">
-            <v>268</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>U07</v>
-          </cell>
-          <cell r="G16">
-            <v>4</v>
-          </cell>
-          <cell r="H16">
-            <v>1</v>
-          </cell>
-          <cell r="I16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>251</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>U07 walls floors</v>
-          </cell>
-          <cell r="C17">
-            <v>3</v>
-          </cell>
-          <cell r="D17">
-            <v>141</v>
-          </cell>
-          <cell r="E17">
-            <v>268</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>U07</v>
-          </cell>
-          <cell r="G17">
-            <v>4</v>
-          </cell>
-          <cell r="H17">
-            <v>1</v>
-          </cell>
-          <cell r="I17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>250</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>U08 ground level</v>
-          </cell>
-          <cell r="C18">
-            <v>2</v>
-          </cell>
-          <cell r="D18">
-            <v>141</v>
-          </cell>
-          <cell r="E18">
-            <v>269</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>U08</v>
-          </cell>
-          <cell r="G18">
-            <v>2</v>
-          </cell>
-          <cell r="H18">
-            <v>1</v>
-          </cell>
-          <cell r="I18">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="A2">
-            <v>245</v>
-          </cell>
-          <cell r="B2">
-            <v>425000</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>N01</v>
-          </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Stickroad 17</v>
-          </cell>
-          <cell r="F2">
-            <v>9</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>246</v>
-          </cell>
-          <cell r="B3">
-            <v>200000</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>N02</v>
-          </cell>
-          <cell r="D3">
-            <v>4</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Twiglane 7</v>
-          </cell>
-          <cell r="F3">
-            <v>6</v>
-          </cell>
-          <cell r="G3">
-            <v>1</v>
-          </cell>
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-          <cell r="I3">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>247</v>
-          </cell>
-          <cell r="B4">
-            <v>425000</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>N03</v>
-          </cell>
-          <cell r="D4">
-            <v>4</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v xml:space="preserve">Stickroad 21_x000D_
-_x000D_
-</v>
-          </cell>
-          <cell r="F4">
-            <v>9</v>
-          </cell>
-          <cell r="G4">
-            <v>1</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-          <cell r="I4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>248</v>
-          </cell>
-          <cell r="B5">
-            <v>200000</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>N04</v>
-          </cell>
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v xml:space="preserve">Twiglane 8_x000D_
-</v>
-          </cell>
-          <cell r="F5">
-            <v>6</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>249</v>
-          </cell>
-          <cell r="B6">
-            <v>200000</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>N05</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Twiglane 5</v>
-          </cell>
-          <cell r="F6">
-            <v>6</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>250</v>
-          </cell>
-          <cell r="B7">
-            <v>100000</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>N06</v>
-          </cell>
-          <cell r="D7">
-            <v>4</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Leafstreet 28</v>
-          </cell>
-          <cell r="F7">
-            <v>3</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-          <cell r="H7">
-            <v>1</v>
-          </cell>
-          <cell r="I7">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>251</v>
-          </cell>
-          <cell r="B8">
-            <v>100000</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>N07</v>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v xml:space="preserve">Leafstreet 26_x000D_
-</v>
-          </cell>
-          <cell r="F8">
-            <v>3</v>
-          </cell>
-          <cell r="G8">
-            <v>0</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>252</v>
-          </cell>
-          <cell r="B9">
-            <v>300000</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>D01</v>
-          </cell>
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v xml:space="preserve">Stonelane 13_x000D_
-</v>
-          </cell>
-          <cell r="F9">
-            <v>8</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>253</v>
-          </cell>
-          <cell r="B10">
-            <v>300000</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>D02</v>
-          </cell>
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Stonelane 11</v>
-          </cell>
-          <cell r="F10">
-            <v>8</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>254</v>
-          </cell>
-          <cell r="B11">
-            <v>300000</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>D03</v>
-          </cell>
-          <cell r="D11">
-            <v>4</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Stonelane 15</v>
-          </cell>
-          <cell r="F11">
-            <v>8</v>
-          </cell>
-          <cell r="G11">
-            <v>0</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>255</v>
-          </cell>
-          <cell r="B12">
-            <v>160000</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>D04</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v xml:space="preserve">Steelstreet 22_x000D_
-</v>
-          </cell>
-          <cell r="F12">
-            <v>5</v>
-          </cell>
-          <cell r="G12">
-            <v>0</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>256</v>
-          </cell>
-          <cell r="B13">
-            <v>160000</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>D05</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v xml:space="preserve">Steelstreet 20_x000D_
-</v>
-          </cell>
-          <cell r="F13">
-            <v>5</v>
-          </cell>
-          <cell r="G13">
-            <v>0</v>
-          </cell>
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>257</v>
-          </cell>
-          <cell r="B14">
-            <v>160000</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>D06</v>
-          </cell>
-          <cell r="D14">
-            <v>4</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>Steelstreet 25</v>
-          </cell>
-          <cell r="F14">
-            <v>5</v>
-          </cell>
-          <cell r="G14">
-            <v>1</v>
-          </cell>
-          <cell r="H14">
-            <v>0</v>
-          </cell>
-          <cell r="I14">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>258</v>
-          </cell>
-          <cell r="B15">
-            <v>160000</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>D07</v>
-          </cell>
-          <cell r="D15">
-            <v>4</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v xml:space="preserve">Steelstreet 23_x000D_
-_x000D_
-</v>
-          </cell>
-          <cell r="F15">
-            <v>5</v>
-          </cell>
-          <cell r="G15">
-            <v>1</v>
-          </cell>
-          <cell r="H15">
-            <v>2</v>
-          </cell>
-          <cell r="I15">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>259</v>
-          </cell>
-          <cell r="B16">
-            <v>80000</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>D08</v>
-          </cell>
-          <cell r="D16">
-            <v>4</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v xml:space="preserve">Brickroad 8_x000D_
-_x000D_
-</v>
-          </cell>
-          <cell r="F16">
-            <v>2</v>
-          </cell>
-          <cell r="G16">
-            <v>1</v>
-          </cell>
-          <cell r="H16">
-            <v>2</v>
-          </cell>
-          <cell r="I16">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>260</v>
-          </cell>
-          <cell r="B17">
-            <v>80000</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>D09</v>
-          </cell>
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>Brickroad 4</v>
-          </cell>
-          <cell r="F17">
-            <v>2</v>
-          </cell>
-          <cell r="G17">
-            <v>0</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>261</v>
-          </cell>
-          <cell r="B18">
-            <v>80000</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>D10</v>
-          </cell>
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v xml:space="preserve">Brickroad 6_x000D_
-</v>
-          </cell>
-          <cell r="F18">
-            <v>2</v>
-          </cell>
-          <cell r="G18">
-            <v>0</v>
-          </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>262</v>
-          </cell>
-          <cell r="B19">
-            <v>200000</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>U01</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v xml:space="preserve">Woolstreet 33_x000D_
-</v>
-          </cell>
-          <cell r="F19">
-            <v>6</v>
-          </cell>
-          <cell r="G19">
-            <v>0</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>34</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2835,6 +1787,1055 @@
           </cell>
           <cell r="I19">
             <v>34</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId3"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="df_income_dist"/>
+      <sheetName val="playerround"/>
+      <sheetName val="measuretype"/>
+      <sheetName val="personalmeasure"/>
+      <sheetName val="housemeasure"/>
+      <sheetName val="initialhousemeasure"/>
+      <sheetName val="house"/>
+      <sheetName val="housegroup"/>
+      <sheetName val="group"/>
+      <sheetName val="groupround"/>
+      <sheetName val="player"/>
+      <sheetName val="gamesession"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="A3">
+            <v>220</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>N02 steel walls</v>
+          </cell>
+          <cell r="C3">
+            <v>4</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>N02</v>
+          </cell>
+          <cell r="G3">
+            <v>6</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+          <cell r="J3">
+            <v>29</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>222</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>N02 water pump</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>N02</v>
+          </cell>
+          <cell r="G4">
+            <v>6</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+          <cell r="J4">
+            <v>29</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>Water pump installation</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>225</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>N03 Rain Barrel</v>
+          </cell>
+          <cell r="C5">
+            <v>3</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>N03</v>
+          </cell>
+          <cell r="G5">
+            <v>9</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+          <cell r="J5">
+            <v>29</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Rainbarrel for recycling</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>228</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>N03 Flood wall</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>N03</v>
+          </cell>
+          <cell r="G6">
+            <v>9</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>1</v>
+          </cell>
+          <cell r="J6">
+            <v>29</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>234</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>N06 sandbags</v>
+          </cell>
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>N06</v>
+          </cell>
+          <cell r="G7">
+            <v>3</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>1</v>
+          </cell>
+          <cell r="J7">
+            <v>29</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>Sandbags</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>223</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>D06 water pump</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>D06</v>
+          </cell>
+          <cell r="G8">
+            <v>5</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>30</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>Water pump installation</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>221</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>D07 flood wall</v>
+          </cell>
+          <cell r="C10">
+            <v>3</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>D07</v>
+          </cell>
+          <cell r="G10">
+            <v>5</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>2</v>
+          </cell>
+          <cell r="J10">
+            <v>30</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>236</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>D07 water resist</v>
+          </cell>
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>D07</v>
+          </cell>
+          <cell r="G11">
+            <v>5</v>
+          </cell>
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+          <cell r="I11">
+            <v>2</v>
+          </cell>
+          <cell r="J11">
+            <v>30</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>Waterproof walls, floors</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>218</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>D08 Green Garden</v>
+          </cell>
+          <cell r="C12">
+            <v>2</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>D08</v>
+          </cell>
+          <cell r="G12">
+            <v>2</v>
+          </cell>
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+          <cell r="I12">
+            <v>2</v>
+          </cell>
+          <cell r="J12">
+            <v>30</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>Green garden</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>226</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>D08 Water proof walls and floors</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>D08</v>
+          </cell>
+          <cell r="G13">
+            <v>2</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+          <cell r="I13">
+            <v>2</v>
+          </cell>
+          <cell r="J13">
+            <v>30</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>Waterproof walls, floors</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>229</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>U02 flood wall</v>
+          </cell>
+          <cell r="C14">
+            <v>2</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>U02</v>
+          </cell>
+          <cell r="G14">
+            <v>6</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>1</v>
+          </cell>
+          <cell r="J14">
+            <v>31</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>219</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>U03 green garden</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>U03</v>
+          </cell>
+          <cell r="G15">
+            <v>6</v>
+          </cell>
+          <cell r="H15">
+            <v>1</v>
+          </cell>
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+          <cell r="J15">
+            <v>31</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>Green garden</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>230</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>U03 flood wall</v>
+          </cell>
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>U03</v>
+          </cell>
+          <cell r="G16">
+            <v>6</v>
+          </cell>
+          <cell r="H16">
+            <v>1</v>
+          </cell>
+          <cell r="I16">
+            <v>1</v>
+          </cell>
+          <cell r="J16">
+            <v>31</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>235</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>U06 sandbags</v>
+          </cell>
+          <cell r="C17">
+            <v>2</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>U06</v>
+          </cell>
+          <cell r="G17">
+            <v>4</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>1</v>
+          </cell>
+          <cell r="J17">
+            <v>31</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>Sandbags</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>224</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>U07 water pump</v>
+          </cell>
+          <cell r="C18">
+            <v>3</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>U07</v>
+          </cell>
+          <cell r="G18">
+            <v>4</v>
+          </cell>
+          <cell r="H18">
+            <v>1</v>
+          </cell>
+          <cell r="I18">
+            <v>2</v>
+          </cell>
+          <cell r="J18">
+            <v>31</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>Water pump installation</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>231</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>U07 flood wall</v>
+          </cell>
+          <cell r="C19">
+            <v>4</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>U07</v>
+          </cell>
+          <cell r="G19">
+            <v>4</v>
+          </cell>
+          <cell r="H19">
+            <v>1</v>
+          </cell>
+          <cell r="I19">
+            <v>2</v>
+          </cell>
+          <cell r="J19">
+            <v>31</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>Self-activating wall</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>233</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>U07 walls floors</v>
+          </cell>
+          <cell r="C20">
+            <v>3</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>U07</v>
+          </cell>
+          <cell r="G20">
+            <v>4</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+          <cell r="I20">
+            <v>2</v>
+          </cell>
+          <cell r="J20">
+            <v>31</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>Waterproof walls, floors</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>227</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>U08 Water proof walls and floors</v>
+          </cell>
+          <cell r="C21">
+            <v>2</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>U08</v>
+          </cell>
+          <cell r="G21">
+            <v>2</v>
+          </cell>
+          <cell r="H21">
+            <v>1</v>
+          </cell>
+          <cell r="I21">
+            <v>2</v>
+          </cell>
+          <cell r="J21">
+            <v>31</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>Waterproof walls, floors</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="A3">
+            <v>218</v>
+          </cell>
+          <cell r="B3">
+            <v>425000</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>N01</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Stickroad 17</v>
+          </cell>
+          <cell r="E3">
+            <v>9</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>219</v>
+          </cell>
+          <cell r="B4">
+            <v>200000</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>N02</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Twiglane 7</v>
+          </cell>
+          <cell r="E4">
+            <v>6</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>220</v>
+          </cell>
+          <cell r="B5">
+            <v>425000</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>N03</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v xml:space="preserve">Stickroad 21_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E5">
+            <v>9</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+          <cell r="H5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>221</v>
+          </cell>
+          <cell r="B6">
+            <v>200000</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>N04</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v xml:space="preserve">Twiglane 8_x000D_
+</v>
+          </cell>
+          <cell r="E6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>222</v>
+          </cell>
+          <cell r="B7">
+            <v>200000</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>N05</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Twiglane 5</v>
+          </cell>
+          <cell r="E7">
+            <v>6</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>223</v>
+          </cell>
+          <cell r="B8">
+            <v>100000</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>N06</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v xml:space="preserve">Leafstreet 28_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E8">
+            <v>3</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>224</v>
+          </cell>
+          <cell r="B9">
+            <v>100000</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>N07</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v xml:space="preserve">Leafstreet 26_x000D_
+</v>
+          </cell>
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>225</v>
+          </cell>
+          <cell r="B10">
+            <v>300000</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>D01</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v xml:space="preserve">Stonelane 13_x000D_
+</v>
+          </cell>
+          <cell r="E10">
+            <v>8</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>226</v>
+          </cell>
+          <cell r="B11">
+            <v>300000</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>D02</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Stonelane 11</v>
+          </cell>
+          <cell r="E11">
+            <v>8</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>227</v>
+          </cell>
+          <cell r="B12">
+            <v>300000</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>D03</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v xml:space="preserve">Stonelane 15_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E12">
+            <v>8</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="H12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>228</v>
+          </cell>
+          <cell r="B13">
+            <v>160000</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>D04</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v xml:space="preserve">Steelstreet 22_x000D_
+</v>
+          </cell>
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>229</v>
+          </cell>
+          <cell r="B14">
+            <v>160000</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>D05</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v xml:space="preserve">Steelstreet 20_x000D_
+</v>
+          </cell>
+          <cell r="E14">
+            <v>5</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>230</v>
+          </cell>
+          <cell r="B15">
+            <v>160000</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>D06</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v xml:space="preserve">Steelstreet 25_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E15">
+            <v>5</v>
+          </cell>
+          <cell r="F15">
+            <v>1</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>231</v>
+          </cell>
+          <cell r="B16">
+            <v>160000</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>D07</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v xml:space="preserve">Steelstreet 23_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E16">
+            <v>5</v>
+          </cell>
+          <cell r="F16">
+            <v>1</v>
+          </cell>
+          <cell r="G16">
+            <v>2</v>
+          </cell>
+          <cell r="H16">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>232</v>
+          </cell>
+          <cell r="B17">
+            <v>80000</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>D08</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v xml:space="preserve">Brickroad 8_x000D_
+_x000D_
+</v>
+          </cell>
+          <cell r="E17">
+            <v>2</v>
+          </cell>
+          <cell r="F17">
+            <v>1</v>
+          </cell>
+          <cell r="G17">
+            <v>2</v>
+          </cell>
+          <cell r="H17">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>233</v>
+          </cell>
+          <cell r="B18">
+            <v>80000</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>D09</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Brickroad 4</v>
+          </cell>
+          <cell r="E18">
+            <v>2</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>234</v>
+          </cell>
+          <cell r="B19">
+            <v>80000</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>D10</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v xml:space="preserve">Brickroad 6_x000D_
+</v>
+          </cell>
+          <cell r="E19">
+            <v>2</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+          <cell r="H19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>235</v>
+          </cell>
+          <cell r="B20">
+            <v>200000</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>U01</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v xml:space="preserve">Woolstreet 33_x000D_
+</v>
+          </cell>
+          <cell r="E20">
+            <v>6</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -3214,39 +3215,39 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
-        <f>IF([2]house!A2&lt;&gt;[3]house!A2,"Different","Same")</f>
+        <f>IF([1]house!A2&lt;&gt;[2]house!A2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>IF([2]house!B2&lt;&gt;[3]house!B2,"Different","Same")</f>
+        <f>IF([1]house!B2&lt;&gt;[2]house!B2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IF([2]house!C2&lt;&gt;[3]house!C2,"Different","Same")</f>
+        <f>IF([1]house!C2&lt;&gt;[2]house!C2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF([2]house!D2&lt;&gt;[3]house!D2,"Different","Same")</f>
+        <f>IF([1]house!D2&lt;&gt;[2]house!D2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF([2]house!E2&lt;&gt;[3]house!E2,"Different","Same")</f>
+        <f>IF([1]house!E2&lt;&gt;[2]house!E2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF([2]house!F2&lt;&gt;[3]house!F2,"Different","Same")</f>
+        <f>IF([1]house!F2&lt;&gt;[2]house!F2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF([2]house!G2&lt;&gt;[3]house!G2,"Different","Same")</f>
+        <f>IF([1]house!G2&lt;&gt;[2]house!G2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF([2]house!H2&lt;&gt;[3]house!H2,"Different","Same")</f>
+        <f>IF([1]house!H2&lt;&gt;[2]house!H2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF([2]house!I2&lt;&gt;[3]house!I2,"Different","Same")</f>
+        <f>IF([1]house!I2&lt;&gt;[2]house!I2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J2" s="1"/>
@@ -3259,39 +3260,39 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
-        <f>IF([2]house!A3&lt;&gt;[3]house!A3,"Different","Same")</f>
+        <f>IF([1]house!A3&lt;&gt;[2]house!A3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>IF([2]house!B3&lt;&gt;[3]house!B3,"Different","Same")</f>
+        <f>IF([1]house!B3&lt;&gt;[2]house!B3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF([2]house!C3&lt;&gt;[3]house!C3,"Different","Same")</f>
+        <f>IF([1]house!C3&lt;&gt;[2]house!C3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF([2]house!D3&lt;&gt;[3]house!D3,"Different","Same")</f>
+        <f>IF([1]house!D3&lt;&gt;[2]house!D3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF([2]house!E3&lt;&gt;[3]house!E3,"Different","Same")</f>
+        <f>IF([1]house!E3&lt;&gt;[2]house!E3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF([2]house!F3&lt;&gt;[3]house!F3,"Different","Same")</f>
+        <f>IF([1]house!F3&lt;&gt;[2]house!F3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF([2]house!G3&lt;&gt;[3]house!G3,"Different","Same")</f>
+        <f>IF([1]house!G3&lt;&gt;[2]house!G3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF([2]house!H3&lt;&gt;[3]house!H3,"Different","Same")</f>
+        <f>IF([1]house!H3&lt;&gt;[2]house!H3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF([2]house!I3&lt;&gt;[3]house!I3,"Different","Same")</f>
+        <f>IF([1]house!I3&lt;&gt;[2]house!I3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J3" s="1"/>
@@ -3304,39 +3305,39 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
-        <f>IF([2]house!A4&lt;&gt;[3]house!A4,"Different","Same")</f>
+        <f>IF([1]house!A4&lt;&gt;[2]house!A4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>IF([2]house!B4&lt;&gt;[3]house!B4,"Different","Same")</f>
+        <f>IF([1]house!B4&lt;&gt;[2]house!B4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IF([2]house!C4&lt;&gt;[3]house!C4,"Different","Same")</f>
+        <f>IF([1]house!C4&lt;&gt;[2]house!C4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF([2]house!D4&lt;&gt;[3]house!D4,"Different","Same")</f>
+        <f>IF([1]house!D4&lt;&gt;[2]house!D4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF([2]house!E4&lt;&gt;[3]house!E4,"Different","Same")</f>
+        <f>IF([1]house!E4&lt;&gt;[2]house!E4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF([2]house!F4&lt;&gt;[3]house!F4,"Different","Same")</f>
+        <f>IF([1]house!F4&lt;&gt;[2]house!F4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF([2]house!G4&lt;&gt;[3]house!G4,"Different","Same")</f>
+        <f>IF([1]house!G4&lt;&gt;[2]house!G4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF([2]house!H4&lt;&gt;[3]house!H4,"Different","Same")</f>
+        <f>IF([1]house!H4&lt;&gt;[2]house!H4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF([2]house!I4&lt;&gt;[3]house!I4,"Different","Same")</f>
+        <f>IF([1]house!I4&lt;&gt;[2]house!I4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J4" s="1"/>
@@ -3349,39 +3350,39 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
-        <f>IF([2]house!A5&lt;&gt;[3]house!A5,"Different","Same")</f>
+        <f>IF([1]house!A5&lt;&gt;[2]house!A5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>IF([2]house!B5&lt;&gt;[3]house!B5,"Different","Same")</f>
+        <f>IF([1]house!B5&lt;&gt;[2]house!B5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IF([2]house!C5&lt;&gt;[3]house!C5,"Different","Same")</f>
+        <f>IF([1]house!C5&lt;&gt;[2]house!C5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF([2]house!D5&lt;&gt;[3]house!D5,"Different","Same")</f>
+        <f>IF([1]house!D5&lt;&gt;[2]house!D5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF([2]house!E5&lt;&gt;[3]house!E5,"Different","Same")</f>
+        <f>IF([1]house!E5&lt;&gt;[2]house!E5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF([2]house!F5&lt;&gt;[3]house!F5,"Different","Same")</f>
+        <f>IF([1]house!F5&lt;&gt;[2]house!F5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF([2]house!G5&lt;&gt;[3]house!G5,"Different","Same")</f>
+        <f>IF([1]house!G5&lt;&gt;[2]house!G5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF([2]house!H5&lt;&gt;[3]house!H5,"Different","Same")</f>
+        <f>IF([1]house!H5&lt;&gt;[2]house!H5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF([2]house!I5&lt;&gt;[3]house!I5,"Different","Same")</f>
+        <f>IF([1]house!I5&lt;&gt;[2]house!I5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J5" s="1"/>
@@ -3394,39 +3395,39 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
-        <f>IF([2]house!A6&lt;&gt;[3]house!A6,"Different","Same")</f>
+        <f>IF([1]house!A6&lt;&gt;[2]house!A6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF([2]house!B6&lt;&gt;[3]house!B6,"Different","Same")</f>
+        <f>IF([1]house!B6&lt;&gt;[2]house!B6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IF([2]house!C6&lt;&gt;[3]house!C6,"Different","Same")</f>
+        <f>IF([1]house!C6&lt;&gt;[2]house!C6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF([2]house!D6&lt;&gt;[3]house!D6,"Different","Same")</f>
+        <f>IF([1]house!D6&lt;&gt;[2]house!D6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF([2]house!E6&lt;&gt;[3]house!E6,"Different","Same")</f>
+        <f>IF([1]house!E6&lt;&gt;[2]house!E6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF([2]house!F6&lt;&gt;[3]house!F6,"Different","Same")</f>
+        <f>IF([1]house!F6&lt;&gt;[2]house!F6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF([2]house!G6&lt;&gt;[3]house!G6,"Different","Same")</f>
+        <f>IF([1]house!G6&lt;&gt;[2]house!G6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF([2]house!H6&lt;&gt;[3]house!H6,"Different","Same")</f>
+        <f>IF([1]house!H6&lt;&gt;[2]house!H6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF([2]house!I6&lt;&gt;[3]house!I6,"Different","Same")</f>
+        <f>IF([1]house!I6&lt;&gt;[2]house!I6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J6" s="1"/>
@@ -3439,39 +3440,39 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
-        <f>IF([2]house!A7&lt;&gt;[3]house!A7,"Different","Same")</f>
+        <f>IF([1]house!A7&lt;&gt;[2]house!A7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>IF([2]house!B7&lt;&gt;[3]house!B7,"Different","Same")</f>
+        <f>IF([1]house!B7&lt;&gt;[2]house!B7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF([2]house!C7&lt;&gt;[3]house!C7,"Different","Same")</f>
+        <f>IF([1]house!C7&lt;&gt;[2]house!C7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF([2]house!D7&lt;&gt;[3]house!D7,"Different","Same")</f>
+        <f>IF([1]house!D7&lt;&gt;[2]house!D7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF([2]house!E7&lt;&gt;[3]house!E7,"Different","Same")</f>
+        <f>IF([1]house!E7&lt;&gt;[2]house!E7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF([2]house!F7&lt;&gt;[3]house!F7,"Different","Same")</f>
+        <f>IF([1]house!F7&lt;&gt;[2]house!F7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF([2]house!G7&lt;&gt;[3]house!G7,"Different","Same")</f>
+        <f>IF([1]house!G7&lt;&gt;[2]house!G7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF([2]house!H7&lt;&gt;[3]house!H7,"Different","Same")</f>
+        <f>IF([1]house!H7&lt;&gt;[2]house!H7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF([2]house!I7&lt;&gt;[3]house!I7,"Different","Same")</f>
+        <f>IF([1]house!I7&lt;&gt;[2]house!I7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J7" s="1"/>
@@ -3484,39 +3485,39 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
-        <f>IF([2]house!A8&lt;&gt;[3]house!A8,"Different","Same")</f>
+        <f>IF([1]house!A8&lt;&gt;[2]house!A8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>IF([2]house!B8&lt;&gt;[3]house!B8,"Different","Same")</f>
+        <f>IF([1]house!B8&lt;&gt;[2]house!B8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IF([2]house!C8&lt;&gt;[3]house!C8,"Different","Same")</f>
+        <f>IF([1]house!C8&lt;&gt;[2]house!C8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF([2]house!D8&lt;&gt;[3]house!D8,"Different","Same")</f>
+        <f>IF([1]house!D8&lt;&gt;[2]house!D8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF([2]house!E8&lt;&gt;[3]house!E8,"Different","Same")</f>
+        <f>IF([1]house!E8&lt;&gt;[2]house!E8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF([2]house!F8&lt;&gt;[3]house!F8,"Different","Same")</f>
+        <f>IF([1]house!F8&lt;&gt;[2]house!F8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF([2]house!G8&lt;&gt;[3]house!G8,"Different","Same")</f>
+        <f>IF([1]house!G8&lt;&gt;[2]house!G8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF([2]house!H8&lt;&gt;[3]house!H8,"Different","Same")</f>
+        <f>IF([1]house!H8&lt;&gt;[2]house!H8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF([2]house!I8&lt;&gt;[3]house!I8,"Different","Same")</f>
+        <f>IF([1]house!I8&lt;&gt;[2]house!I8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J8" s="1"/>
@@ -3529,39 +3530,39 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
-        <f>IF([2]house!A9&lt;&gt;[3]house!A9,"Different","Same")</f>
+        <f>IF([1]house!A9&lt;&gt;[2]house!A9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>IF([2]house!B9&lt;&gt;[3]house!B9,"Different","Same")</f>
+        <f>IF([1]house!B9&lt;&gt;[2]house!B9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF([2]house!C9&lt;&gt;[3]house!C9,"Different","Same")</f>
+        <f>IF([1]house!C9&lt;&gt;[2]house!C9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF([2]house!D9&lt;&gt;[3]house!D9,"Different","Same")</f>
+        <f>IF([1]house!D9&lt;&gt;[2]house!D9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF([2]house!E9&lt;&gt;[3]house!E9,"Different","Same")</f>
+        <f>IF([1]house!E9&lt;&gt;[2]house!E9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF([2]house!F9&lt;&gt;[3]house!F9,"Different","Same")</f>
+        <f>IF([1]house!F9&lt;&gt;[2]house!F9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF([2]house!G9&lt;&gt;[3]house!G9,"Different","Same")</f>
+        <f>IF([1]house!G9&lt;&gt;[2]house!G9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF([2]house!H9&lt;&gt;[3]house!H9,"Different","Same")</f>
+        <f>IF([1]house!H9&lt;&gt;[2]house!H9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF([2]house!I9&lt;&gt;[3]house!I9,"Different","Same")</f>
+        <f>IF([1]house!I9&lt;&gt;[2]house!I9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J9" s="1"/>
@@ -3574,39 +3575,39 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
-        <f>IF([2]house!A10&lt;&gt;[3]house!A10,"Different","Same")</f>
+        <f>IF([1]house!A10&lt;&gt;[2]house!A10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>IF([2]house!B10&lt;&gt;[3]house!B10,"Different","Same")</f>
+        <f>IF([1]house!B10&lt;&gt;[2]house!B10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IF([2]house!C10&lt;&gt;[3]house!C10,"Different","Same")</f>
+        <f>IF([1]house!C10&lt;&gt;[2]house!C10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF([2]house!D10&lt;&gt;[3]house!D10,"Different","Same")</f>
+        <f>IF([1]house!D10&lt;&gt;[2]house!D10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF([2]house!E10&lt;&gt;[3]house!E10,"Different","Same")</f>
+        <f>IF([1]house!E10&lt;&gt;[2]house!E10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF([2]house!F10&lt;&gt;[3]house!F10,"Different","Same")</f>
+        <f>IF([1]house!F10&lt;&gt;[2]house!F10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF([2]house!G10&lt;&gt;[3]house!G10,"Different","Same")</f>
+        <f>IF([1]house!G10&lt;&gt;[2]house!G10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF([2]house!H10&lt;&gt;[3]house!H10,"Different","Same")</f>
+        <f>IF([1]house!H10&lt;&gt;[2]house!H10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF([2]house!I10&lt;&gt;[3]house!I10,"Different","Same")</f>
+        <f>IF([1]house!I10&lt;&gt;[2]house!I10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J10" s="1"/>
@@ -3619,39 +3620,39 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
-        <f>IF([2]house!A11&lt;&gt;[3]house!A11,"Different","Same")</f>
+        <f>IF([1]house!A11&lt;&gt;[2]house!A11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>IF([2]house!B11&lt;&gt;[3]house!B11,"Different","Same")</f>
+        <f>IF([1]house!B11&lt;&gt;[2]house!B11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IF([2]house!C11&lt;&gt;[3]house!C11,"Different","Same")</f>
+        <f>IF([1]house!C11&lt;&gt;[2]house!C11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF([2]house!D11&lt;&gt;[3]house!D11,"Different","Same")</f>
+        <f>IF([1]house!D11&lt;&gt;[2]house!D11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF([2]house!E11&lt;&gt;[3]house!E11,"Different","Same")</f>
+        <f>IF([1]house!E11&lt;&gt;[2]house!E11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF([2]house!F11&lt;&gt;[3]house!F11,"Different","Same")</f>
+        <f>IF([1]house!F11&lt;&gt;[2]house!F11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF([2]house!G11&lt;&gt;[3]house!G11,"Different","Same")</f>
+        <f>IF([1]house!G11&lt;&gt;[2]house!G11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF([2]house!H11&lt;&gt;[3]house!H11,"Different","Same")</f>
+        <f>IF([1]house!H11&lt;&gt;[2]house!H11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF([2]house!I11&lt;&gt;[3]house!I11,"Different","Same")</f>
+        <f>IF([1]house!I11&lt;&gt;[2]house!I11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J11" s="1"/>
@@ -3664,39 +3665,39 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
-        <f>IF([2]house!A12&lt;&gt;[3]house!A12,"Different","Same")</f>
+        <f>IF([1]house!A12&lt;&gt;[2]house!A12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>IF([2]house!B12&lt;&gt;[3]house!B12,"Different","Same")</f>
+        <f>IF([1]house!B12&lt;&gt;[2]house!B12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IF([2]house!C12&lt;&gt;[3]house!C12,"Different","Same")</f>
+        <f>IF([1]house!C12&lt;&gt;[2]house!C12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF([2]house!D12&lt;&gt;[3]house!D12,"Different","Same")</f>
+        <f>IF([1]house!D12&lt;&gt;[2]house!D12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF([2]house!E12&lt;&gt;[3]house!E12,"Different","Same")</f>
+        <f>IF([1]house!E12&lt;&gt;[2]house!E12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF([2]house!F12&lt;&gt;[3]house!F12,"Different","Same")</f>
+        <f>IF([1]house!F12&lt;&gt;[2]house!F12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF([2]house!G12&lt;&gt;[3]house!G12,"Different","Same")</f>
+        <f>IF([1]house!G12&lt;&gt;[2]house!G12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF([2]house!H12&lt;&gt;[3]house!H12,"Different","Same")</f>
+        <f>IF([1]house!H12&lt;&gt;[2]house!H12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF([2]house!I12&lt;&gt;[3]house!I12,"Different","Same")</f>
+        <f>IF([1]house!I12&lt;&gt;[2]house!I12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J12" s="1"/>
@@ -3709,39 +3710,39 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
-        <f>IF([2]house!A13&lt;&gt;[3]house!A13,"Different","Same")</f>
+        <f>IF([1]house!A13&lt;&gt;[2]house!A13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>IF([2]house!B13&lt;&gt;[3]house!B13,"Different","Same")</f>
+        <f>IF([1]house!B13&lt;&gt;[2]house!B13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF([2]house!C13&lt;&gt;[3]house!C13,"Different","Same")</f>
+        <f>IF([1]house!C13&lt;&gt;[2]house!C13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF([2]house!D13&lt;&gt;[3]house!D13,"Different","Same")</f>
+        <f>IF([1]house!D13&lt;&gt;[2]house!D13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF([2]house!E13&lt;&gt;[3]house!E13,"Different","Same")</f>
+        <f>IF([1]house!E13&lt;&gt;[2]house!E13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF([2]house!F13&lt;&gt;[3]house!F13,"Different","Same")</f>
+        <f>IF([1]house!F13&lt;&gt;[2]house!F13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF([2]house!G13&lt;&gt;[3]house!G13,"Different","Same")</f>
+        <f>IF([1]house!G13&lt;&gt;[2]house!G13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF([2]house!H13&lt;&gt;[3]house!H13,"Different","Same")</f>
+        <f>IF([1]house!H13&lt;&gt;[2]house!H13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF([2]house!I13&lt;&gt;[3]house!I13,"Different","Same")</f>
+        <f>IF([1]house!I13&lt;&gt;[2]house!I13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J13" s="1"/>
@@ -3754,39 +3755,39 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
-        <f>IF([2]house!A14&lt;&gt;[3]house!A14,"Different","Same")</f>
+        <f>IF([1]house!A14&lt;&gt;[2]house!A14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>IF([2]house!B14&lt;&gt;[3]house!B14,"Different","Same")</f>
+        <f>IF([1]house!B14&lt;&gt;[2]house!B14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF([2]house!C14&lt;&gt;[3]house!C14,"Different","Same")</f>
+        <f>IF([1]house!C14&lt;&gt;[2]house!C14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF([2]house!D14&lt;&gt;[3]house!D14,"Different","Same")</f>
+        <f>IF([1]house!D14&lt;&gt;[2]house!D14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF([2]house!E14&lt;&gt;[3]house!E14,"Different","Same")</f>
+        <f>IF([1]house!E14&lt;&gt;[2]house!E14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF([2]house!F14&lt;&gt;[3]house!F14,"Different","Same")</f>
+        <f>IF([1]house!F14&lt;&gt;[2]house!F14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF([2]house!G14&lt;&gt;[3]house!G14,"Different","Same")</f>
+        <f>IF([1]house!G14&lt;&gt;[2]house!G14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF([2]house!H14&lt;&gt;[3]house!H14,"Different","Same")</f>
+        <f>IF([1]house!H14&lt;&gt;[2]house!H14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF([2]house!I14&lt;&gt;[3]house!I14,"Different","Same")</f>
+        <f>IF([1]house!I14&lt;&gt;[2]house!I14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J14" s="1"/>
@@ -3799,39 +3800,39 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
-        <f>IF([2]house!A15&lt;&gt;[3]house!A15,"Different","Same")</f>
+        <f>IF([1]house!A15&lt;&gt;[2]house!A15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF([2]house!B15&lt;&gt;[3]house!B15,"Different","Same")</f>
+        <f>IF([1]house!B15&lt;&gt;[2]house!B15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IF([2]house!C15&lt;&gt;[3]house!C15,"Different","Same")</f>
+        <f>IF([1]house!C15&lt;&gt;[2]house!C15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF([2]house!D15&lt;&gt;[3]house!D15,"Different","Same")</f>
+        <f>IF([1]house!D15&lt;&gt;[2]house!D15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF([2]house!E15&lt;&gt;[3]house!E15,"Different","Same")</f>
+        <f>IF([1]house!E15&lt;&gt;[2]house!E15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF([2]house!F15&lt;&gt;[3]house!F15,"Different","Same")</f>
+        <f>IF([1]house!F15&lt;&gt;[2]house!F15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF([2]house!G15&lt;&gt;[3]house!G15,"Different","Same")</f>
+        <f>IF([1]house!G15&lt;&gt;[2]house!G15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF([2]house!H15&lt;&gt;[3]house!H15,"Different","Same")</f>
+        <f>IF([1]house!H15&lt;&gt;[2]house!H15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF([2]house!I15&lt;&gt;[3]house!I15,"Different","Same")</f>
+        <f>IF([1]house!I15&lt;&gt;[2]house!I15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J15" s="1"/>
@@ -3844,39 +3845,39 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
-        <f>IF([2]house!A16&lt;&gt;[3]house!A16,"Different","Same")</f>
+        <f>IF([1]house!A16&lt;&gt;[2]house!A16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>IF([2]house!B16&lt;&gt;[3]house!B16,"Different","Same")</f>
+        <f>IF([1]house!B16&lt;&gt;[2]house!B16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IF([2]house!C16&lt;&gt;[3]house!C16,"Different","Same")</f>
+        <f>IF([1]house!C16&lt;&gt;[2]house!C16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF([2]house!D16&lt;&gt;[3]house!D16,"Different","Same")</f>
+        <f>IF([1]house!D16&lt;&gt;[2]house!D16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF([2]house!E16&lt;&gt;[3]house!E16,"Different","Same")</f>
+        <f>IF([1]house!E16&lt;&gt;[2]house!E16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF([2]house!F16&lt;&gt;[3]house!F16,"Different","Same")</f>
+        <f>IF([1]house!F16&lt;&gt;[2]house!F16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF([2]house!G16&lt;&gt;[3]house!G16,"Different","Same")</f>
+        <f>IF([1]house!G16&lt;&gt;[2]house!G16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF([2]house!H16&lt;&gt;[3]house!H16,"Different","Same")</f>
+        <f>IF([1]house!H16&lt;&gt;[2]house!H16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF([2]house!I16&lt;&gt;[3]house!I16,"Different","Same")</f>
+        <f>IF([1]house!I16&lt;&gt;[2]house!I16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J16" s="1"/>
@@ -3889,39 +3890,39 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
-        <f>IF([2]house!A17&lt;&gt;[3]house!A17,"Different","Same")</f>
+        <f>IF([1]house!A17&lt;&gt;[2]house!A17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>IF([2]house!B17&lt;&gt;[3]house!B17,"Different","Same")</f>
+        <f>IF([1]house!B17&lt;&gt;[2]house!B17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IF([2]house!C17&lt;&gt;[3]house!C17,"Different","Same")</f>
+        <f>IF([1]house!C17&lt;&gt;[2]house!C17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF([2]house!D17&lt;&gt;[3]house!D17,"Different","Same")</f>
+        <f>IF([1]house!D17&lt;&gt;[2]house!D17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF([2]house!E17&lt;&gt;[3]house!E17,"Different","Same")</f>
+        <f>IF([1]house!E17&lt;&gt;[2]house!E17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF([2]house!F17&lt;&gt;[3]house!F17,"Different","Same")</f>
+        <f>IF([1]house!F17&lt;&gt;[2]house!F17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF([2]house!G17&lt;&gt;[3]house!G17,"Different","Same")</f>
+        <f>IF([1]house!G17&lt;&gt;[2]house!G17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF([2]house!H17&lt;&gt;[3]house!H17,"Different","Same")</f>
+        <f>IF([1]house!H17&lt;&gt;[2]house!H17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF([2]house!I17&lt;&gt;[3]house!I17,"Different","Same")</f>
+        <f>IF([1]house!I17&lt;&gt;[2]house!I17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J17" s="1"/>
@@ -3934,39 +3935,39 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
-        <f>IF([2]house!A18&lt;&gt;[3]house!A18,"Different","Same")</f>
+        <f>IF([1]house!A18&lt;&gt;[2]house!A18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>IF([2]house!B18&lt;&gt;[3]house!B18,"Different","Same")</f>
+        <f>IF([1]house!B18&lt;&gt;[2]house!B18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IF([2]house!C18&lt;&gt;[3]house!C18,"Different","Same")</f>
+        <f>IF([1]house!C18&lt;&gt;[2]house!C18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF([2]house!D18&lt;&gt;[3]house!D18,"Different","Same")</f>
+        <f>IF([1]house!D18&lt;&gt;[2]house!D18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF([2]house!E18&lt;&gt;[3]house!E18,"Different","Same")</f>
+        <f>IF([1]house!E18&lt;&gt;[2]house!E18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF([2]house!F18&lt;&gt;[3]house!F18,"Different","Same")</f>
+        <f>IF([1]house!F18&lt;&gt;[2]house!F18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF([2]house!G18&lt;&gt;[3]house!G18,"Different","Same")</f>
+        <f>IF([1]house!G18&lt;&gt;[2]house!G18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF([2]house!H18&lt;&gt;[3]house!H18,"Different","Same")</f>
+        <f>IF([1]house!H18&lt;&gt;[2]house!H18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF([2]house!I18&lt;&gt;[3]house!I18,"Different","Same")</f>
+        <f>IF([1]house!I18&lt;&gt;[2]house!I18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J18" s="1"/>
@@ -3979,39 +3980,39 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
-        <f>IF([2]house!A19&lt;&gt;[3]house!A19,"Different","Same")</f>
+        <f>IF([1]house!A19&lt;&gt;[2]house!A19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>IF([2]house!B19&lt;&gt;[3]house!B19,"Different","Same")</f>
+        <f>IF([1]house!B19&lt;&gt;[2]house!B19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IF([2]house!C19&lt;&gt;[3]house!C19,"Different","Same")</f>
+        <f>IF([1]house!C19&lt;&gt;[2]house!C19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF([2]house!D19&lt;&gt;[3]house!D19,"Different","Same")</f>
+        <f>IF([1]house!D19&lt;&gt;[2]house!D19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF([2]house!E19&lt;&gt;[3]house!E19,"Different","Same")</f>
+        <f>IF([1]house!E19&lt;&gt;[2]house!E19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF([2]house!F19&lt;&gt;[3]house!F19,"Different","Same")</f>
+        <f>IF([1]house!F19&lt;&gt;[2]house!F19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF([2]house!G19&lt;&gt;[3]house!G19,"Different","Same")</f>
+        <f>IF([1]house!G19&lt;&gt;[2]house!G19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF([2]house!H19&lt;&gt;[3]house!H19,"Different","Same")</f>
+        <f>IF([1]house!H19&lt;&gt;[2]house!H19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF([2]house!I19&lt;&gt;[3]house!I19,"Different","Same")</f>
+        <f>IF([1]house!I19&lt;&gt;[2]house!I19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="J19" s="1"/>
@@ -4078,39 +4079,39 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
-        <f>IF([1]house!A3&lt;&gt;[2]house!A2,"Different","Same")</f>
+        <f>IF([3]house!A3&lt;&gt;[1]house!A2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>IF([1]house!B3&lt;&gt;[2]house!B2,"Different","Same")</f>
+        <f>IF([3]house!B3&lt;&gt;[1]house!B2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IF([1]house!C3&lt;&gt;[2]house!C2,"Different","Same")</f>
+        <f>IF([3]house!C3&lt;&gt;[1]house!C2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF([1]house!H3&lt;&gt;[2]house!D2,"Different","Same")</f>
+        <f>IF([3]house!H3&lt;&gt;[1]house!D2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF([1]house!D3&lt;&gt;[2]house!E2,"Different","Same")</f>
+        <f>IF([3]house!D3&lt;&gt;[1]house!E2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF([1]house!E3&lt;&gt;[2]house!F2,"Different","Same")</f>
+        <f>IF([3]house!E3&lt;&gt;[1]house!F2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF([1]house!F3&lt;&gt;[2]house!G2,"Different","Same")</f>
+        <f>IF([3]house!F3&lt;&gt;[1]house!G2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF([1]house!G3&lt;&gt;[2]house!H2,"Different","Same")</f>
+        <f>IF([3]house!G3&lt;&gt;[1]house!H2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I2" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I2,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I2,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J2" s="1"/>
@@ -4123,39 +4124,39 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
-        <f>IF([1]house!A4&lt;&gt;[2]house!A3,"Different","Same")</f>
+        <f>IF([3]house!A4&lt;&gt;[1]house!A3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>IF([1]house!B4&lt;&gt;[2]house!B3,"Different","Same")</f>
+        <f>IF([3]house!B4&lt;&gt;[1]house!B3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF([1]house!C4&lt;&gt;[2]house!C3,"Different","Same")</f>
+        <f>IF([3]house!C4&lt;&gt;[1]house!C3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF([1]house!H4&lt;&gt;[2]house!D3,"Different","Same")</f>
+        <f>IF([3]house!H4&lt;&gt;[1]house!D3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF([1]house!D4&lt;&gt;[2]house!E3,"Different","Same")</f>
+        <f>IF([3]house!D4&lt;&gt;[1]house!E3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF([1]house!E4&lt;&gt;[2]house!F3,"Different","Same")</f>
+        <f>IF([3]house!E4&lt;&gt;[1]house!F3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF([1]house!F4&lt;&gt;[2]house!G3,"Different","Same")</f>
+        <f>IF([3]house!F4&lt;&gt;[1]house!G3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF([1]house!G4&lt;&gt;[2]house!H3,"Different","Same")</f>
+        <f>IF([3]house!G4&lt;&gt;[1]house!H3,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I3" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I3,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I3,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J3" s="1"/>
@@ -4168,39 +4169,39 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
-        <f>IF([1]house!A5&lt;&gt;[2]house!A4,"Different","Same")</f>
+        <f>IF([3]house!A5&lt;&gt;[1]house!A4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>IF([1]house!B5&lt;&gt;[2]house!B4,"Different","Same")</f>
+        <f>IF([3]house!B5&lt;&gt;[1]house!B4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IF([1]house!C5&lt;&gt;[2]house!C4,"Different","Same")</f>
+        <f>IF([3]house!C5&lt;&gt;[1]house!C4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF([1]house!H5&lt;&gt;[2]house!D4,"Different","Same")</f>
+        <f>IF([3]house!H5&lt;&gt;[1]house!D4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF([1]house!D5&lt;&gt;[2]house!E4,"Different","Same")</f>
+        <f>IF([3]house!D5&lt;&gt;[1]house!E4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF([1]house!E5&lt;&gt;[2]house!F4,"Different","Same")</f>
+        <f>IF([3]house!E5&lt;&gt;[1]house!F4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF([1]house!F5&lt;&gt;[2]house!G4,"Different","Same")</f>
+        <f>IF([3]house!F5&lt;&gt;[1]house!G4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF([1]house!G5&lt;&gt;[2]house!H4,"Different","Same")</f>
+        <f>IF([3]house!G5&lt;&gt;[1]house!H4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I4" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I4,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I4,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J4" s="1"/>
@@ -4213,39 +4214,39 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
-        <f>IF([1]house!A6&lt;&gt;[2]house!A5,"Different","Same")</f>
+        <f>IF([3]house!A6&lt;&gt;[1]house!A5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>IF([1]house!B6&lt;&gt;[2]house!B5,"Different","Same")</f>
+        <f>IF([3]house!B6&lt;&gt;[1]house!B5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IF([1]house!C6&lt;&gt;[2]house!C5,"Different","Same")</f>
+        <f>IF([3]house!C6&lt;&gt;[1]house!C5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF([1]house!H6&lt;&gt;[2]house!D5,"Different","Same")</f>
+        <f>IF([3]house!H6&lt;&gt;[1]house!D5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF([1]house!D6&lt;&gt;[2]house!E5,"Different","Same")</f>
+        <f>IF([3]house!D6&lt;&gt;[1]house!E5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF([1]house!E6&lt;&gt;[2]house!F5,"Different","Same")</f>
+        <f>IF([3]house!E6&lt;&gt;[1]house!F5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF([1]house!F6&lt;&gt;[2]house!G5,"Different","Same")</f>
+        <f>IF([3]house!F6&lt;&gt;[1]house!G5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF([1]house!G6&lt;&gt;[2]house!H5,"Different","Same")</f>
+        <f>IF([3]house!G6&lt;&gt;[1]house!H5,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I5" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I5,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I5,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J5" s="1"/>
@@ -4258,39 +4259,39 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
-        <f>IF([1]house!A7&lt;&gt;[2]house!A6,"Different","Same")</f>
+        <f>IF([3]house!A7&lt;&gt;[1]house!A6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF([1]house!B7&lt;&gt;[2]house!B6,"Different","Same")</f>
+        <f>IF([3]house!B7&lt;&gt;[1]house!B6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IF([1]house!C7&lt;&gt;[2]house!C6,"Different","Same")</f>
+        <f>IF([3]house!C7&lt;&gt;[1]house!C6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF([1]house!H7&lt;&gt;[2]house!D6,"Different","Same")</f>
+        <f>IF([3]house!H7&lt;&gt;[1]house!D6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF([1]house!D7&lt;&gt;[2]house!E6,"Different","Same")</f>
+        <f>IF([3]house!D7&lt;&gt;[1]house!E6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF([1]house!E7&lt;&gt;[2]house!F6,"Different","Same")</f>
+        <f>IF([3]house!E7&lt;&gt;[1]house!F6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF([1]house!F7&lt;&gt;[2]house!G6,"Different","Same")</f>
+        <f>IF([3]house!F7&lt;&gt;[1]house!G6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF([1]house!G7&lt;&gt;[2]house!H6,"Different","Same")</f>
+        <f>IF([3]house!G7&lt;&gt;[1]house!H6,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I6" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I6,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I6,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J6" s="1"/>
@@ -4303,39 +4304,39 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
-        <f>IF([1]house!A8&lt;&gt;[2]house!A7,"Different","Same")</f>
+        <f>IF([3]house!A8&lt;&gt;[1]house!A7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>IF([1]house!B8&lt;&gt;[2]house!B7,"Different","Same")</f>
+        <f>IF([3]house!B8&lt;&gt;[1]house!B7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF([1]house!C8&lt;&gt;[2]house!C7,"Different","Same")</f>
+        <f>IF([3]house!C8&lt;&gt;[1]house!C7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF([1]house!H8&lt;&gt;[2]house!D7,"Different","Same")</f>
+        <f>IF([3]house!H8&lt;&gt;[1]house!D7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF([1]house!D8&lt;&gt;[2]house!E7,"Different","Same")</f>
+        <f>IF([3]house!D8&lt;&gt;[1]house!E7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF([1]house!E8&lt;&gt;[2]house!F7,"Different","Same")</f>
+        <f>IF([3]house!E8&lt;&gt;[1]house!F7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF([1]house!F8&lt;&gt;[2]house!G7,"Different","Same")</f>
+        <f>IF([3]house!F8&lt;&gt;[1]house!G7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF([1]house!G8&lt;&gt;[2]house!H7,"Different","Same")</f>
+        <f>IF([3]house!G8&lt;&gt;[1]house!H7,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I7" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I7,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I7,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J7" s="1"/>
@@ -4348,39 +4349,39 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
-        <f>IF([1]house!A9&lt;&gt;[2]house!A8,"Different","Same")</f>
+        <f>IF([3]house!A9&lt;&gt;[1]house!A8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>IF([1]house!B9&lt;&gt;[2]house!B8,"Different","Same")</f>
+        <f>IF([3]house!B9&lt;&gt;[1]house!B8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IF([1]house!C9&lt;&gt;[2]house!C8,"Different","Same")</f>
+        <f>IF([3]house!C9&lt;&gt;[1]house!C8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF([1]house!H9&lt;&gt;[2]house!D8,"Different","Same")</f>
+        <f>IF([3]house!H9&lt;&gt;[1]house!D8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF([1]house!D9&lt;&gt;[2]house!E8,"Different","Same")</f>
+        <f>IF([3]house!D9&lt;&gt;[1]house!E8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF([1]house!E9&lt;&gt;[2]house!F8,"Different","Same")</f>
+        <f>IF([3]house!E9&lt;&gt;[1]house!F8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF([1]house!F9&lt;&gt;[2]house!G8,"Different","Same")</f>
+        <f>IF([3]house!F9&lt;&gt;[1]house!G8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF([1]house!G9&lt;&gt;[2]house!H8,"Different","Same")</f>
+        <f>IF([3]house!G9&lt;&gt;[1]house!H8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I8" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I8,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I8,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J8" s="1"/>
@@ -4393,39 +4394,39 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
-        <f>IF([1]house!A10&lt;&gt;[2]house!A9,"Different","Same")</f>
+        <f>IF([3]house!A10&lt;&gt;[1]house!A9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>IF([1]house!B10&lt;&gt;[2]house!B9,"Different","Same")</f>
+        <f>IF([3]house!B10&lt;&gt;[1]house!B9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF([1]house!C10&lt;&gt;[2]house!C9,"Different","Same")</f>
+        <f>IF([3]house!C10&lt;&gt;[1]house!C9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF([1]house!H10&lt;&gt;[2]house!D9,"Different","Same")</f>
+        <f>IF([3]house!H10&lt;&gt;[1]house!D9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF([1]house!D10&lt;&gt;[2]house!E9,"Different","Same")</f>
+        <f>IF([3]house!D10&lt;&gt;[1]house!E9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF([1]house!E10&lt;&gt;[2]house!F9,"Different","Same")</f>
+        <f>IF([3]house!E10&lt;&gt;[1]house!F9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF([1]house!F10&lt;&gt;[2]house!G9,"Different","Same")</f>
+        <f>IF([3]house!F10&lt;&gt;[1]house!G9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF([1]house!G10&lt;&gt;[2]house!H9,"Different","Same")</f>
+        <f>IF([3]house!G10&lt;&gt;[1]house!H9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I9" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I9,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I9,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J9" s="1"/>
@@ -4438,39 +4439,39 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
-        <f>IF([1]house!A11&lt;&gt;[2]house!A10,"Different","Same")</f>
+        <f>IF([3]house!A11&lt;&gt;[1]house!A10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>IF([1]house!B11&lt;&gt;[2]house!B10,"Different","Same")</f>
+        <f>IF([3]house!B11&lt;&gt;[1]house!B10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IF([1]house!C11&lt;&gt;[2]house!C10,"Different","Same")</f>
+        <f>IF([3]house!C11&lt;&gt;[1]house!C10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF([1]house!H11&lt;&gt;[2]house!D10,"Different","Same")</f>
+        <f>IF([3]house!H11&lt;&gt;[1]house!D10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF([1]house!D11&lt;&gt;[2]house!E10,"Different","Same")</f>
+        <f>IF([3]house!D11&lt;&gt;[1]house!E10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF([1]house!E11&lt;&gt;[2]house!F10,"Different","Same")</f>
+        <f>IF([3]house!E11&lt;&gt;[1]house!F10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF([1]house!F11&lt;&gt;[2]house!G10,"Different","Same")</f>
+        <f>IF([3]house!F11&lt;&gt;[1]house!G10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF([1]house!G11&lt;&gt;[2]house!H10,"Different","Same")</f>
+        <f>IF([3]house!G11&lt;&gt;[1]house!H10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I10" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I10,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I10,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="1"/>
@@ -4483,39 +4484,39 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
-        <f>IF([1]house!A12&lt;&gt;[2]house!A11,"Different","Same")</f>
+        <f>IF([3]house!A12&lt;&gt;[1]house!A11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>IF([1]house!B12&lt;&gt;[2]house!B11,"Different","Same")</f>
+        <f>IF([3]house!B12&lt;&gt;[1]house!B11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IF([1]house!C12&lt;&gt;[2]house!C11,"Different","Same")</f>
+        <f>IF([3]house!C12&lt;&gt;[1]house!C11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF([1]house!H12&lt;&gt;[2]house!D11,"Different","Same")</f>
+        <f>IF([3]house!H12&lt;&gt;[1]house!D11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF([1]house!D12&lt;&gt;[2]house!E11,"Different","Same")</f>
+        <f>IF([3]house!D12&lt;&gt;[1]house!E11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF([1]house!E12&lt;&gt;[2]house!F11,"Different","Same")</f>
+        <f>IF([3]house!E12&lt;&gt;[1]house!F11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF([1]house!F12&lt;&gt;[2]house!G11,"Different","Same")</f>
+        <f>IF([3]house!F12&lt;&gt;[1]house!G11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF([1]house!G12&lt;&gt;[2]house!H11,"Different","Same")</f>
+        <f>IF([3]house!G12&lt;&gt;[1]house!H11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I11" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I11,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I11,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J11" s="1"/>
@@ -4528,39 +4529,39 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
-        <f>IF([1]house!A13&lt;&gt;[2]house!A12,"Different","Same")</f>
+        <f>IF([3]house!A13&lt;&gt;[1]house!A12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>IF([1]house!B13&lt;&gt;[2]house!B12,"Different","Same")</f>
+        <f>IF([3]house!B13&lt;&gt;[1]house!B12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IF([1]house!C13&lt;&gt;[2]house!C12,"Different","Same")</f>
+        <f>IF([3]house!C13&lt;&gt;[1]house!C12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF([1]house!H13&lt;&gt;[2]house!D12,"Different","Same")</f>
+        <f>IF([3]house!H13&lt;&gt;[1]house!D12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF([1]house!D13&lt;&gt;[2]house!E12,"Different","Same")</f>
+        <f>IF([3]house!D13&lt;&gt;[1]house!E12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF([1]house!E13&lt;&gt;[2]house!F12,"Different","Same")</f>
+        <f>IF([3]house!E13&lt;&gt;[1]house!F12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF([1]house!F13&lt;&gt;[2]house!G12,"Different","Same")</f>
+        <f>IF([3]house!F13&lt;&gt;[1]house!G12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF([1]house!G13&lt;&gt;[2]house!H12,"Different","Same")</f>
+        <f>IF([3]house!G13&lt;&gt;[1]house!H12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I12" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I12,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I12,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="1"/>
@@ -4573,39 +4574,39 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
-        <f>IF([1]house!A14&lt;&gt;[2]house!A13,"Different","Same")</f>
+        <f>IF([3]house!A14&lt;&gt;[1]house!A13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>IF([1]house!B14&lt;&gt;[2]house!B13,"Different","Same")</f>
+        <f>IF([3]house!B14&lt;&gt;[1]house!B13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF([1]house!C14&lt;&gt;[2]house!C13,"Different","Same")</f>
+        <f>IF([3]house!C14&lt;&gt;[1]house!C13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF([1]house!H14&lt;&gt;[2]house!D13,"Different","Same")</f>
+        <f>IF([3]house!H14&lt;&gt;[1]house!D13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF([1]house!D14&lt;&gt;[2]house!E13,"Different","Same")</f>
+        <f>IF([3]house!D14&lt;&gt;[1]house!E13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF([1]house!E14&lt;&gt;[2]house!F13,"Different","Same")</f>
+        <f>IF([3]house!E14&lt;&gt;[1]house!F13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF([1]house!F14&lt;&gt;[2]house!G13,"Different","Same")</f>
+        <f>IF([3]house!F14&lt;&gt;[1]house!G13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF([1]house!G14&lt;&gt;[2]house!H13,"Different","Same")</f>
+        <f>IF([3]house!G14&lt;&gt;[1]house!H13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I13" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I13,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I13,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="1"/>
@@ -4618,39 +4619,39 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
-        <f>IF([1]house!A15&lt;&gt;[2]house!A14,"Different","Same")</f>
+        <f>IF([3]house!A15&lt;&gt;[1]house!A14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>IF([1]house!B15&lt;&gt;[2]house!B14,"Different","Same")</f>
+        <f>IF([3]house!B15&lt;&gt;[1]house!B14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF([1]house!C15&lt;&gt;[2]house!C14,"Different","Same")</f>
+        <f>IF([3]house!C15&lt;&gt;[1]house!C14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF([1]house!H15&lt;&gt;[2]house!D14,"Different","Same")</f>
+        <f>IF([3]house!H15&lt;&gt;[1]house!D14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF([1]house!D15&lt;&gt;[2]house!E14,"Different","Same")</f>
+        <f>IF([3]house!D15&lt;&gt;[1]house!E14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF([1]house!E15&lt;&gt;[2]house!F14,"Different","Same")</f>
+        <f>IF([3]house!E15&lt;&gt;[1]house!F14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF([1]house!F15&lt;&gt;[2]house!G14,"Different","Same")</f>
+        <f>IF([3]house!F15&lt;&gt;[1]house!G14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF([1]house!G15&lt;&gt;[2]house!H14,"Different","Same")</f>
+        <f>IF([3]house!G15&lt;&gt;[1]house!H14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I14" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I14,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I14,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="1"/>
@@ -4663,39 +4664,39 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
-        <f>IF([1]house!A16&lt;&gt;[2]house!A15,"Different","Same")</f>
+        <f>IF([3]house!A16&lt;&gt;[1]house!A15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF([1]house!B16&lt;&gt;[2]house!B15,"Different","Same")</f>
+        <f>IF([3]house!B16&lt;&gt;[1]house!B15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IF([1]house!C16&lt;&gt;[2]house!C15,"Different","Same")</f>
+        <f>IF([3]house!C16&lt;&gt;[1]house!C15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF([1]house!H16&lt;&gt;[2]house!D15,"Different","Same")</f>
+        <f>IF([3]house!H16&lt;&gt;[1]house!D15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF([1]house!D16&lt;&gt;[2]house!E15,"Different","Same")</f>
+        <f>IF([3]house!D16&lt;&gt;[1]house!E15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF([1]house!E16&lt;&gt;[2]house!F15,"Different","Same")</f>
+        <f>IF([3]house!E16&lt;&gt;[1]house!F15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF([1]house!F16&lt;&gt;[2]house!G15,"Different","Same")</f>
+        <f>IF([3]house!F16&lt;&gt;[1]house!G15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF([1]house!G16&lt;&gt;[2]house!H15,"Different","Same")</f>
+        <f>IF([3]house!G16&lt;&gt;[1]house!H15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I15" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I15,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I15,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="1"/>
@@ -4708,39 +4709,39 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
-        <f>IF([1]house!A17&lt;&gt;[2]house!A16,"Different","Same")</f>
+        <f>IF([3]house!A17&lt;&gt;[1]house!A16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>IF([1]house!B17&lt;&gt;[2]house!B16,"Different","Same")</f>
+        <f>IF([3]house!B17&lt;&gt;[1]house!B16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IF([1]house!C17&lt;&gt;[2]house!C16,"Different","Same")</f>
+        <f>IF([3]house!C17&lt;&gt;[1]house!C16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF([1]house!H17&lt;&gt;[2]house!D16,"Different","Same")</f>
+        <f>IF([3]house!H17&lt;&gt;[1]house!D16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF([1]house!D17&lt;&gt;[2]house!E16,"Different","Same")</f>
+        <f>IF([3]house!D17&lt;&gt;[1]house!E16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF([1]house!E17&lt;&gt;[2]house!F16,"Different","Same")</f>
+        <f>IF([3]house!E17&lt;&gt;[1]house!F16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF([1]house!F17&lt;&gt;[2]house!G16,"Different","Same")</f>
+        <f>IF([3]house!F17&lt;&gt;[1]house!G16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF([1]house!G17&lt;&gt;[2]house!H16,"Different","Same")</f>
+        <f>IF([3]house!G17&lt;&gt;[1]house!H16,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I16" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I16,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I16,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="1"/>
@@ -4753,39 +4754,39 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
-        <f>IF([1]house!A18&lt;&gt;[2]house!A17,"Different","Same")</f>
+        <f>IF([3]house!A18&lt;&gt;[1]house!A17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>IF([1]house!B18&lt;&gt;[2]house!B17,"Different","Same")</f>
+        <f>IF([3]house!B18&lt;&gt;[1]house!B17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IF([1]house!C18&lt;&gt;[2]house!C17,"Different","Same")</f>
+        <f>IF([3]house!C18&lt;&gt;[1]house!C17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF([1]house!H18&lt;&gt;[2]house!D17,"Different","Same")</f>
+        <f>IF([3]house!H18&lt;&gt;[1]house!D17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF([1]house!D18&lt;&gt;[2]house!E17,"Different","Same")</f>
+        <f>IF([3]house!D18&lt;&gt;[1]house!E17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF([1]house!E18&lt;&gt;[2]house!F17,"Different","Same")</f>
+        <f>IF([3]house!E18&lt;&gt;[1]house!F17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF([1]house!F18&lt;&gt;[2]house!G17,"Different","Same")</f>
+        <f>IF([3]house!F18&lt;&gt;[1]house!G17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF([1]house!G18&lt;&gt;[2]house!H17,"Different","Same")</f>
+        <f>IF([3]house!G18&lt;&gt;[1]house!H17,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I17" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I17,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I17,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J17" s="1"/>
@@ -4798,39 +4799,39 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
-        <f>IF([1]house!A19&lt;&gt;[2]house!A18,"Different","Same")</f>
+        <f>IF([3]house!A19&lt;&gt;[1]house!A18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>IF([1]house!B19&lt;&gt;[2]house!B18,"Different","Same")</f>
+        <f>IF([3]house!B19&lt;&gt;[1]house!B18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IF([1]house!C19&lt;&gt;[2]house!C18,"Different","Same")</f>
+        <f>IF([3]house!C19&lt;&gt;[1]house!C18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF([1]house!H19&lt;&gt;[2]house!D18,"Different","Same")</f>
+        <f>IF([3]house!H19&lt;&gt;[1]house!D18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF([1]house!D19&lt;&gt;[2]house!E18,"Different","Same")</f>
+        <f>IF([3]house!D19&lt;&gt;[1]house!E18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF([1]house!E19&lt;&gt;[2]house!F18,"Different","Same")</f>
+        <f>IF([3]house!E19&lt;&gt;[1]house!F18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF([1]house!F19&lt;&gt;[2]house!G18,"Different","Same")</f>
+        <f>IF([3]house!F19&lt;&gt;[1]house!G18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF([1]house!G19&lt;&gt;[2]house!H18,"Different","Same")</f>
+        <f>IF([3]house!G19&lt;&gt;[1]house!H18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I18" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I18,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I18,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="1"/>
@@ -4843,39 +4844,39 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
-        <f>IF([1]house!A20&lt;&gt;[2]house!A19,"Different","Same")</f>
+        <f>IF([3]house!A20&lt;&gt;[1]house!A19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>IF([1]house!B20&lt;&gt;[2]house!B19,"Different","Same")</f>
+        <f>IF([3]house!B20&lt;&gt;[1]house!B19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IF([1]house!C20&lt;&gt;[2]house!C19,"Different","Same")</f>
+        <f>IF([3]house!C20&lt;&gt;[1]house!C19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF([1]house!H20&lt;&gt;[2]house!D19,"Different","Same")</f>
+        <f>IF([3]house!H20&lt;&gt;[1]house!D19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF([1]house!D20&lt;&gt;[2]house!E19,"Different","Same")</f>
+        <f>IF([3]house!D20&lt;&gt;[1]house!E19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF([1]house!E20&lt;&gt;[2]house!F19,"Different","Same")</f>
+        <f>IF([3]house!E20&lt;&gt;[1]house!F19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF([1]house!F20&lt;&gt;[2]house!G19,"Different","Same")</f>
+        <f>IF([3]house!F20&lt;&gt;[1]house!G19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF([1]house!G20&lt;&gt;[2]house!H19,"Different","Same")</f>
+        <f>IF([3]house!G20&lt;&gt;[1]house!H19,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="I19" s="1" t="e">
-        <f>IF([1]house!#REF!&lt;&gt;[2]house!I19,"Different","Same")</f>
+        <f>IF([3]house!#REF!&lt;&gt;[1]house!I19,"Different","Same")</f>
         <v>#REF!</v>
       </c>
       <c r="J19" s="1"/>
@@ -4948,39 +4949,39 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A3&lt;&gt;[2]initialhousemeasure!A2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A3&lt;&gt;[1]initialhousemeasure!A2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B3&lt;&gt;[2]initialhousemeasure!B2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B3&lt;&gt;[1]initialhousemeasure!B2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C3&lt;&gt;[2]initialhousemeasure!C2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C3&lt;&gt;[1]initialhousemeasure!C2,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F3&lt;&gt;[2]initialhousemeasure!D2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F3&lt;&gt;[1]initialhousemeasure!D2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G3&lt;&gt;[2]initialhousemeasure!E2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G3&lt;&gt;[1]initialhousemeasure!E2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H3&lt;&gt;[2]initialhousemeasure!F2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H3&lt;&gt;[1]initialhousemeasure!F2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I3&lt;&gt;[2]initialhousemeasure!G2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I3&lt;&gt;[1]initialhousemeasure!G2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J3&lt;&gt;[2]initialhousemeasure!H2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J3&lt;&gt;[1]initialhousemeasure!H2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K3&lt;&gt;[2]initialhousemeasure!I2,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K3&lt;&gt;[1]initialhousemeasure!I2,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J2" s="1"/>
@@ -4993,39 +4994,39 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A4&lt;&gt;[2]initialhousemeasure!A3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A4&lt;&gt;[1]initialhousemeasure!A3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B4&lt;&gt;[2]initialhousemeasure!B3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B4&lt;&gt;[1]initialhousemeasure!B3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C4&lt;&gt;[2]initialhousemeasure!C3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C4&lt;&gt;[1]initialhousemeasure!C3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F4&lt;&gt;[2]initialhousemeasure!D3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F4&lt;&gt;[1]initialhousemeasure!D3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G4&lt;&gt;[2]initialhousemeasure!E3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G4&lt;&gt;[1]initialhousemeasure!E3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H4&lt;&gt;[2]initialhousemeasure!F3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H4&lt;&gt;[1]initialhousemeasure!F3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I4&lt;&gt;[2]initialhousemeasure!G3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I4&lt;&gt;[1]initialhousemeasure!G3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J4&lt;&gt;[2]initialhousemeasure!H3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J4&lt;&gt;[1]initialhousemeasure!H3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K4&lt;&gt;[2]initialhousemeasure!I3,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K4&lt;&gt;[1]initialhousemeasure!I3,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J3" s="1"/>
@@ -5038,39 +5039,39 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A5&lt;&gt;[2]initialhousemeasure!A4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A5&lt;&gt;[1]initialhousemeasure!A4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B5&lt;&gt;[2]initialhousemeasure!B4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B5&lt;&gt;[1]initialhousemeasure!B4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C5&lt;&gt;[2]initialhousemeasure!C4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C5&lt;&gt;[1]initialhousemeasure!C4,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F5&lt;&gt;[2]initialhousemeasure!D4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F5&lt;&gt;[1]initialhousemeasure!D4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G5&lt;&gt;[2]initialhousemeasure!E4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G5&lt;&gt;[1]initialhousemeasure!E4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H5&lt;&gt;[2]initialhousemeasure!F4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H5&lt;&gt;[1]initialhousemeasure!F4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I5&lt;&gt;[2]initialhousemeasure!G4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I5&lt;&gt;[1]initialhousemeasure!G4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J5&lt;&gt;[2]initialhousemeasure!H4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J5&lt;&gt;[1]initialhousemeasure!H4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K5&lt;&gt;[2]initialhousemeasure!I4,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K5&lt;&gt;[1]initialhousemeasure!I4,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J4" s="1"/>
@@ -5083,39 +5084,39 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A6&lt;&gt;[2]initialhousemeasure!A5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A6&lt;&gt;[1]initialhousemeasure!A5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B6&lt;&gt;[2]initialhousemeasure!B5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B6&lt;&gt;[1]initialhousemeasure!B5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C6&lt;&gt;[2]initialhousemeasure!C5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C6&lt;&gt;[1]initialhousemeasure!C5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F6&lt;&gt;[2]initialhousemeasure!D5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F6&lt;&gt;[1]initialhousemeasure!D5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G6&lt;&gt;[2]initialhousemeasure!E5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G6&lt;&gt;[1]initialhousemeasure!E5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H6&lt;&gt;[2]initialhousemeasure!F5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H6&lt;&gt;[1]initialhousemeasure!F5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I6&lt;&gt;[2]initialhousemeasure!G5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I6&lt;&gt;[1]initialhousemeasure!G5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J6&lt;&gt;[2]initialhousemeasure!H5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J6&lt;&gt;[1]initialhousemeasure!H5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K6&lt;&gt;[2]initialhousemeasure!I5,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K6&lt;&gt;[1]initialhousemeasure!I5,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J5" s="1"/>
@@ -5128,39 +5129,39 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A7&lt;&gt;[2]initialhousemeasure!A6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A7&lt;&gt;[1]initialhousemeasure!A6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B7&lt;&gt;[2]initialhousemeasure!B6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B7&lt;&gt;[1]initialhousemeasure!B6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C7&lt;&gt;[2]initialhousemeasure!C6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C7&lt;&gt;[1]initialhousemeasure!C6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F7&lt;&gt;[2]initialhousemeasure!D6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F7&lt;&gt;[1]initialhousemeasure!D6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G7&lt;&gt;[2]initialhousemeasure!E6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G7&lt;&gt;[1]initialhousemeasure!E6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H7&lt;&gt;[2]initialhousemeasure!F6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H7&lt;&gt;[1]initialhousemeasure!F6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I7&lt;&gt;[2]initialhousemeasure!G6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I7&lt;&gt;[1]initialhousemeasure!G6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J7&lt;&gt;[2]initialhousemeasure!H6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J7&lt;&gt;[1]initialhousemeasure!H6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K7&lt;&gt;[2]initialhousemeasure!I6,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K7&lt;&gt;[1]initialhousemeasure!I6,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J6" s="1"/>
@@ -5173,39 +5174,39 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A8&lt;&gt;[2]initialhousemeasure!A7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A8&lt;&gt;[1]initialhousemeasure!A7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B8&lt;&gt;[2]initialhousemeasure!B7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B8&lt;&gt;[1]initialhousemeasure!B7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C8&lt;&gt;[2]initialhousemeasure!C7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C8&lt;&gt;[1]initialhousemeasure!C7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F8&lt;&gt;[2]initialhousemeasure!D7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F8&lt;&gt;[1]initialhousemeasure!D7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G8&lt;&gt;[2]initialhousemeasure!E7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G8&lt;&gt;[1]initialhousemeasure!E7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H8&lt;&gt;[2]initialhousemeasure!F7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H8&lt;&gt;[1]initialhousemeasure!F7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I8&lt;&gt;[2]initialhousemeasure!G7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I8&lt;&gt;[1]initialhousemeasure!G7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J8&lt;&gt;[2]initialhousemeasure!H7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J8&lt;&gt;[1]initialhousemeasure!H7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K8&lt;&gt;[2]initialhousemeasure!I7,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K8&lt;&gt;[1]initialhousemeasure!I7,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J7" s="1"/>
@@ -5218,39 +5219,39 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A10&lt;&gt;[2]initialhousemeasure!A8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A10&lt;&gt;[1]initialhousemeasure!A8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B10&lt;&gt;[2]initialhousemeasure!B8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B10&lt;&gt;[1]initialhousemeasure!B8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C10&lt;&gt;[2]initialhousemeasure!C8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C10&lt;&gt;[1]initialhousemeasure!C8,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F10&lt;&gt;[2]initialhousemeasure!D8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F10&lt;&gt;[1]initialhousemeasure!D8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G10&lt;&gt;[2]initialhousemeasure!E8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G10&lt;&gt;[1]initialhousemeasure!E8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H10&lt;&gt;[2]initialhousemeasure!F8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H10&lt;&gt;[1]initialhousemeasure!F8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I10&lt;&gt;[2]initialhousemeasure!G8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I10&lt;&gt;[1]initialhousemeasure!G8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J10&lt;&gt;[2]initialhousemeasure!H8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J10&lt;&gt;[1]initialhousemeasure!H8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K10&lt;&gt;[2]initialhousemeasure!I8,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K10&lt;&gt;[1]initialhousemeasure!I8,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J8" s="1"/>
@@ -5263,39 +5264,39 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A11&lt;&gt;[2]initialhousemeasure!A9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A11&lt;&gt;[1]initialhousemeasure!A9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B11&lt;&gt;[2]initialhousemeasure!B9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B11&lt;&gt;[1]initialhousemeasure!B9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C11&lt;&gt;[2]initialhousemeasure!C9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C11&lt;&gt;[1]initialhousemeasure!C9,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F11&lt;&gt;[2]initialhousemeasure!D9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F11&lt;&gt;[1]initialhousemeasure!D9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G11&lt;&gt;[2]initialhousemeasure!E9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G11&lt;&gt;[1]initialhousemeasure!E9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H11&lt;&gt;[2]initialhousemeasure!F9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H11&lt;&gt;[1]initialhousemeasure!F9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I11&lt;&gt;[2]initialhousemeasure!G9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I11&lt;&gt;[1]initialhousemeasure!G9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J11&lt;&gt;[2]initialhousemeasure!H9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J11&lt;&gt;[1]initialhousemeasure!H9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K11&lt;&gt;[2]initialhousemeasure!I9,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K11&lt;&gt;[1]initialhousemeasure!I9,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J9" s="1"/>
@@ -5308,39 +5309,39 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A12&lt;&gt;[2]initialhousemeasure!A10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A12&lt;&gt;[1]initialhousemeasure!A10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B12&lt;&gt;[2]initialhousemeasure!B10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B12&lt;&gt;[1]initialhousemeasure!B10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C12&lt;&gt;[2]initialhousemeasure!C10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C12&lt;&gt;[1]initialhousemeasure!C10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F12&lt;&gt;[2]initialhousemeasure!D10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F12&lt;&gt;[1]initialhousemeasure!D10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G12&lt;&gt;[2]initialhousemeasure!E10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G12&lt;&gt;[1]initialhousemeasure!E10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H12&lt;&gt;[2]initialhousemeasure!F10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H12&lt;&gt;[1]initialhousemeasure!F10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I12&lt;&gt;[2]initialhousemeasure!G10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I12&lt;&gt;[1]initialhousemeasure!G10,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J12&lt;&gt;[2]initialhousemeasure!H10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J12&lt;&gt;[1]initialhousemeasure!H10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K12&lt;&gt;[2]initialhousemeasure!I10,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K12&lt;&gt;[1]initialhousemeasure!I10,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J10" s="1"/>
@@ -5353,39 +5354,39 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A13&lt;&gt;[2]initialhousemeasure!A11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A13&lt;&gt;[1]initialhousemeasure!A11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B13&lt;&gt;[2]initialhousemeasure!B11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B13&lt;&gt;[1]initialhousemeasure!B11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C13&lt;&gt;[2]initialhousemeasure!C11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C13&lt;&gt;[1]initialhousemeasure!C11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F13&lt;&gt;[2]initialhousemeasure!D11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F13&lt;&gt;[1]initialhousemeasure!D11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G13&lt;&gt;[2]initialhousemeasure!E11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G13&lt;&gt;[1]initialhousemeasure!E11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H13&lt;&gt;[2]initialhousemeasure!F11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H13&lt;&gt;[1]initialhousemeasure!F11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I13&lt;&gt;[2]initialhousemeasure!G11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I13&lt;&gt;[1]initialhousemeasure!G11,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J13&lt;&gt;[2]initialhousemeasure!H11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J13&lt;&gt;[1]initialhousemeasure!H11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K13&lt;&gt;[2]initialhousemeasure!I11,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K13&lt;&gt;[1]initialhousemeasure!I11,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J11" s="1"/>
@@ -5398,39 +5399,39 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A14&lt;&gt;[2]initialhousemeasure!A12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A14&lt;&gt;[1]initialhousemeasure!A12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B14&lt;&gt;[2]initialhousemeasure!B12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B14&lt;&gt;[1]initialhousemeasure!B12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C14&lt;&gt;[2]initialhousemeasure!C12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C14&lt;&gt;[1]initialhousemeasure!C12,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F14&lt;&gt;[2]initialhousemeasure!D12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F14&lt;&gt;[1]initialhousemeasure!D12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G14&lt;&gt;[2]initialhousemeasure!E12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G14&lt;&gt;[1]initialhousemeasure!E12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H14&lt;&gt;[2]initialhousemeasure!F12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H14&lt;&gt;[1]initialhousemeasure!F12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I14&lt;&gt;[2]initialhousemeasure!G12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I14&lt;&gt;[1]initialhousemeasure!G12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J14&lt;&gt;[2]initialhousemeasure!H12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J14&lt;&gt;[1]initialhousemeasure!H12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K14&lt;&gt;[2]initialhousemeasure!I12,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K14&lt;&gt;[1]initialhousemeasure!I12,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J12" s="1"/>
@@ -5443,39 +5444,39 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A15&lt;&gt;[2]initialhousemeasure!A13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A15&lt;&gt;[1]initialhousemeasure!A13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B15&lt;&gt;[2]initialhousemeasure!B13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B15&lt;&gt;[1]initialhousemeasure!B13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C15&lt;&gt;[2]initialhousemeasure!C13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C15&lt;&gt;[1]initialhousemeasure!C13,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F15&lt;&gt;[2]initialhousemeasure!D13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F15&lt;&gt;[1]initialhousemeasure!D13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G15&lt;&gt;[2]initialhousemeasure!E13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G15&lt;&gt;[1]initialhousemeasure!E13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H15&lt;&gt;[2]initialhousemeasure!F13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H15&lt;&gt;[1]initialhousemeasure!F13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I15&lt;&gt;[2]initialhousemeasure!G13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I15&lt;&gt;[1]initialhousemeasure!G13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J15&lt;&gt;[2]initialhousemeasure!H13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J15&lt;&gt;[1]initialhousemeasure!H13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K15&lt;&gt;[2]initialhousemeasure!I13,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K15&lt;&gt;[1]initialhousemeasure!I13,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J13" s="1"/>
@@ -5488,39 +5489,39 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A16&lt;&gt;[2]initialhousemeasure!A14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A16&lt;&gt;[1]initialhousemeasure!A14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B16&lt;&gt;[2]initialhousemeasure!B14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B16&lt;&gt;[1]initialhousemeasure!B14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C16&lt;&gt;[2]initialhousemeasure!C14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C16&lt;&gt;[1]initialhousemeasure!C14,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F16&lt;&gt;[2]initialhousemeasure!D14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F16&lt;&gt;[1]initialhousemeasure!D14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G16&lt;&gt;[2]initialhousemeasure!E14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G16&lt;&gt;[1]initialhousemeasure!E14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H16&lt;&gt;[2]initialhousemeasure!F14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H16&lt;&gt;[1]initialhousemeasure!F14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I16&lt;&gt;[2]initialhousemeasure!G14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I16&lt;&gt;[1]initialhousemeasure!G14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J16&lt;&gt;[2]initialhousemeasure!H14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J16&lt;&gt;[1]initialhousemeasure!H14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K16&lt;&gt;[2]initialhousemeasure!I14,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K16&lt;&gt;[1]initialhousemeasure!I14,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J14" s="1"/>
@@ -5533,39 +5534,39 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A17&lt;&gt;[2]initialhousemeasure!A15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A17&lt;&gt;[1]initialhousemeasure!A15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B17&lt;&gt;[2]initialhousemeasure!B15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B17&lt;&gt;[1]initialhousemeasure!B15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C17&lt;&gt;[2]initialhousemeasure!C15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C17&lt;&gt;[1]initialhousemeasure!C15,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F17&lt;&gt;[2]initialhousemeasure!D15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F17&lt;&gt;[1]initialhousemeasure!D15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G17&lt;&gt;[2]initialhousemeasure!E15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G17&lt;&gt;[1]initialhousemeasure!E15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H17&lt;&gt;[2]initialhousemeasure!F15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H17&lt;&gt;[1]initialhousemeasure!F15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I17&lt;&gt;[2]initialhousemeasure!G15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I17&lt;&gt;[1]initialhousemeasure!G15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J17&lt;&gt;[2]initialhousemeasure!H15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J17&lt;&gt;[1]initialhousemeasure!H15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K17&lt;&gt;[2]initialhousemeasure!I15,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K17&lt;&gt;[1]initialhousemeasure!I15,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J15" s="1"/>
@@ -5578,39 +5579,39 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A18&lt;&gt;[2]initialhousemeasure!A16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A18&lt;&gt;[1]initialhousemeasure!A16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B18&lt;&gt;[2]initialhousemeasure!B16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B18&lt;&gt;[1]initialhousemeasure!B16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C18&lt;&gt;[2]initialhousemeasure!C16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C18&lt;&gt;[1]initialhousemeasure!C16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F18&lt;&gt;[2]initialhousemeasure!D16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F18&lt;&gt;[1]initialhousemeasure!D16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G18&lt;&gt;[2]initialhousemeasure!E16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G18&lt;&gt;[1]initialhousemeasure!E16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H18&lt;&gt;[2]initialhousemeasure!F16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H18&lt;&gt;[1]initialhousemeasure!F16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I18&lt;&gt;[2]initialhousemeasure!G16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I18&lt;&gt;[1]initialhousemeasure!G16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J18&lt;&gt;[2]initialhousemeasure!H16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J18&lt;&gt;[1]initialhousemeasure!H16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K18&lt;&gt;[2]initialhousemeasure!I16,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K18&lt;&gt;[1]initialhousemeasure!I16,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J16" s="1"/>
@@ -5623,39 +5624,39 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A19&lt;&gt;[2]initialhousemeasure!A17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A19&lt;&gt;[1]initialhousemeasure!A17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B19&lt;&gt;[2]initialhousemeasure!B17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B19&lt;&gt;[1]initialhousemeasure!B17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C19&lt;&gt;[2]initialhousemeasure!C17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C19&lt;&gt;[1]initialhousemeasure!C17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F19&lt;&gt;[2]initialhousemeasure!D17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F19&lt;&gt;[1]initialhousemeasure!D17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G19&lt;&gt;[2]initialhousemeasure!E17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G19&lt;&gt;[1]initialhousemeasure!E17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H19&lt;&gt;[2]initialhousemeasure!F17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H19&lt;&gt;[1]initialhousemeasure!F17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I19&lt;&gt;[2]initialhousemeasure!G17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I19&lt;&gt;[1]initialhousemeasure!G17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J19&lt;&gt;[2]initialhousemeasure!H17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J19&lt;&gt;[1]initialhousemeasure!H17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K19&lt;&gt;[2]initialhousemeasure!I17,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K19&lt;&gt;[1]initialhousemeasure!I17,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J17" s="1"/>
@@ -5668,39 +5669,39 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A20&lt;&gt;[2]initialhousemeasure!A18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A20&lt;&gt;[1]initialhousemeasure!A18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B20&lt;&gt;[2]initialhousemeasure!B18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B20&lt;&gt;[1]initialhousemeasure!B18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C20&lt;&gt;[2]initialhousemeasure!C18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C20&lt;&gt;[1]initialhousemeasure!C18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F20&lt;&gt;[2]initialhousemeasure!D18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F20&lt;&gt;[1]initialhousemeasure!D18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G20&lt;&gt;[2]initialhousemeasure!E18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G20&lt;&gt;[1]initialhousemeasure!E18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H20&lt;&gt;[2]initialhousemeasure!F18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H20&lt;&gt;[1]initialhousemeasure!F18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I20&lt;&gt;[2]initialhousemeasure!G18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I20&lt;&gt;[1]initialhousemeasure!G18,"Different","Same")</f>
         <v>Same</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J20&lt;&gt;[2]initialhousemeasure!H18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J20&lt;&gt;[1]initialhousemeasure!H18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K20&lt;&gt;[2]initialhousemeasure!I18,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K20&lt;&gt;[1]initialhousemeasure!I18,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J18" s="1"/>
@@ -5713,39 +5714,39 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!A21&lt;&gt;[2]initialhousemeasure!A19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!A21&lt;&gt;[1]initialhousemeasure!A19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!B21&lt;&gt;[2]initialhousemeasure!B19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!B21&lt;&gt;[1]initialhousemeasure!B19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!C21&lt;&gt;[2]initialhousemeasure!C19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!C21&lt;&gt;[1]initialhousemeasure!C19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!F21&lt;&gt;[2]initialhousemeasure!D19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!F21&lt;&gt;[1]initialhousemeasure!D19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!G21&lt;&gt;[2]initialhousemeasure!E19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!G21&lt;&gt;[1]initialhousemeasure!E19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!H21&lt;&gt;[2]initialhousemeasure!F19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!H21&lt;&gt;[1]initialhousemeasure!F19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!I21&lt;&gt;[2]initialhousemeasure!G19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!I21&lt;&gt;[1]initialhousemeasure!G19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!J21&lt;&gt;[2]initialhousemeasure!H19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!J21&lt;&gt;[1]initialhousemeasure!H19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF([1]initialhousemeasure!K21&lt;&gt;[2]initialhousemeasure!I19,"Different","Same")</f>
+        <f>IF([3]initialhousemeasure!K21&lt;&gt;[1]initialhousemeasure!I19,"Different","Same")</f>
         <v>Different</v>
       </c>
       <c r="J19" s="1"/>
